--- a/refs/heads/master/StructureDefinition-PatientLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T15:10:48+00:00</t>
+    <t>2024-02-09T20:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PatientLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T20:00:26+00:00</t>
+    <t>2024-02-21T16:19:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PatientLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-21T16:19:48+00:00</t>
+    <t>2024-02-29T18:01:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PatientLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T18:01:33+00:00</t>
+    <t>2024-02-29T20:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PatientLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T20:20:18+00:00</t>
+    <t>2024-03-01T15:50:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PatientLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-01T15:50:04+00:00</t>
+    <t>2024-03-04T15:00:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PatientLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T15:00:39+00:00</t>
+    <t>2024-03-05T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PatientLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PatientLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T20:46:11+00:00</t>
+    <t>2024-03-06T13:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PatientLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T13:55:04+00:00</t>
+    <t>2024-03-06T14:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PatientLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T14:38:01+00:00</t>
+    <t>2024-03-18T16:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PatientLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T16:21:14+00:00</t>
+    <t>2024-03-18T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PatientLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T17:14:02+00:00</t>
+    <t>2024-03-19T16:07:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PatientLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T16:07:43+00:00</t>
+    <t>2024-03-19T17:49:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PatientLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T17:49:48+00:00</t>
+    <t>2024-04-04T12:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PatientLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T12:35:15+00:00</t>
+    <t>2024-04-29T22:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PatientLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T22:09:51+00:00</t>
+    <t>2024-04-30T11:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PatientLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PatientLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5945" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5945" uniqueCount="831">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T19:35:25+00:00</t>
+    <t>2024-05-31T20:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -432,7 +432,7 @@
     <t>Patient.extension</t>
   </si>
   <si>
-    <t>3</t>
+    <t>4</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
@@ -1407,7 +1407,7 @@
     <t>Patient.telecom.system</t>
   </si>
   <si>
-    <t>phone | fax | email | pager | url | sms | other</t>
+    <t>Orden de uso del método de contacto, siendo 1 = prioritario</t>
   </si>
   <si>
     <t>Forma de telecomunicación para el punto de contacto: qué sistema de comunicación se requiere para hacer uso del contacto.</t>
@@ -1487,9 +1487,6 @@
 </t>
   </si>
   <si>
-    <t>Orden de uso del método de contacto, siendo 1 = prioritario</t>
-  </si>
-  <si>
     <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
   </si>
   <si>
@@ -1502,7 +1499,7 @@
     <t>Patient.telecom.period</t>
   </si>
   <si>
-    <t>Periodo de tiempo durante el cual es válido el contacto del paciente</t>
+    <t>Para completar este campo utilice solo los valores "phone | email"</t>
   </si>
   <si>
     <t>Time period when the contact point was/is in use.</t>
@@ -4267,7 +4264,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>89</v>
@@ -11311,13 +11308,13 @@
         <v>474</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11367,7 +11364,7 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -11399,10 +11396,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11428,10 +11425,10 @@
         <v>297</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -11482,7 +11479,7 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -11514,10 +11511,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11543,16 +11540,16 @@
         <v>109</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>81</v>
@@ -11580,11 +11577,11 @@
         <v>206</v>
       </c>
       <c r="Y74" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="Z74" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="Z74" t="s" s="2">
-        <v>489</v>
-      </c>
       <c r="AA74" t="s" s="2">
         <v>81</v>
       </c>
@@ -11601,7 +11598,7 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -11616,16 +11613,16 @@
         <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AL74" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="AL74" t="s" s="2">
+      <c r="AM74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>81</v>
@@ -11633,10 +11630,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11644,7 +11641,7 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>89</v>
@@ -11659,19 +11656,19 @@
         <v>90</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="N75" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="M75" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>81</v>
@@ -11720,7 +11717,7 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -11735,27 +11732,27 @@
         <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AL75" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="AL75" t="s" s="2">
+      <c r="AM75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="AM75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN75" t="s" s="2">
+      <c r="AO75" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>501</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11778,19 +11775,19 @@
         <v>90</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="N76" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="M76" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="N76" t="s" s="2">
+      <c r="O76" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>81</v>
@@ -11839,7 +11836,7 @@
         <v>81</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -11854,7 +11851,7 @@
         <v>101</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>197</v>
@@ -11863,7 +11860,7 @@
         <v>81</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>81</v>
@@ -11871,10 +11868,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11897,19 +11894,19 @@
         <v>81</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="N77" t="s" s="2">
+      <c r="O77" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>81</v>
@@ -11958,7 +11955,7 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11973,16 +11970,16 @@
         <v>101</v>
       </c>
       <c r="AK77" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN77" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>81</v>
@@ -11990,10 +11987,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12105,10 +12102,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12137,7 +12134,7 @@
         <v>136</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -12220,13 +12217,13 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="C80" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>81</v>
@@ -12248,16 +12245,16 @@
         <v>81</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -12339,13 +12336,13 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="C81" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>81</v>
@@ -12367,16 +12364,16 @@
         <v>81</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M81" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="N81" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -12458,13 +12455,13 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="C82" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="C82" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>81</v>
@@ -12486,13 +12483,13 @@
         <v>81</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -12575,10 +12572,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12604,16 +12601,16 @@
         <v>109</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="N83" t="s" s="2">
+      <c r="O83" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>81</v>
@@ -12626,7 +12623,7 @@
         <v>81</v>
       </c>
       <c r="T83" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="U83" t="s" s="2">
         <v>81</v>
@@ -12641,28 +12638,28 @@
         <v>206</v>
       </c>
       <c r="Y83" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="Z83" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="Z83" t="s" s="2">
+      <c r="AA83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF83" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -12686,7 +12683,7 @@
         <v>81</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>81</v>
@@ -12694,10 +12691,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12723,13 +12720,13 @@
         <v>109</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12743,7 +12740,7 @@
         <v>81</v>
       </c>
       <c r="T84" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="U84" t="s" s="2">
         <v>81</v>
@@ -12758,28 +12755,28 @@
         <v>206</v>
       </c>
       <c r="Y84" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="Z84" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="Z84" t="s" s="2">
+      <c r="AA84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF84" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>549</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -12803,7 +12800,7 @@
         <v>81</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>81</v>
@@ -12811,10 +12808,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12840,13 +12837,13 @@
         <v>193</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>354</v>
@@ -12862,43 +12859,43 @@
         <v>81</v>
       </c>
       <c r="T85" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF85" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -12922,7 +12919,7 @@
         <v>81</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>81</v>
@@ -12930,10 +12927,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12959,10 +12956,10 @@
         <v>193</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12977,43 +12974,43 @@
         <v>81</v>
       </c>
       <c r="T86" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF86" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
@@ -13028,16 +13025,16 @@
         <v>101</v>
       </c>
       <c r="AK86" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN86" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>563</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>81</v>
@@ -13045,14 +13042,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -13074,10 +13071,10 @@
         <v>193</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -13092,43 +13089,43 @@
         <v>81</v>
       </c>
       <c r="T87" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF87" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -13143,16 +13140,16 @@
         <v>101</v>
       </c>
       <c r="AK87" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN87" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>81</v>
@@ -13160,10 +13157,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13275,10 +13272,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13304,10 +13301,10 @@
         <v>135</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -13388,13 +13385,13 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="C90" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="C90" t="s" s="2">
-        <v>576</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>81</v>
@@ -13416,13 +13413,13 @@
         <v>81</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -13505,10 +13502,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13620,14 +13617,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13649,13 +13646,13 @@
         <v>193</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>584</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13669,43 +13666,43 @@
         <v>81</v>
       </c>
       <c r="T92" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF92" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
@@ -13720,16 +13717,16 @@
         <v>101</v>
       </c>
       <c r="AK92" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN92" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>81</v>
@@ -13737,10 +13734,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13852,10 +13849,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13881,10 +13878,10 @@
         <v>135</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13965,13 +13962,13 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="C95" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="C95" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>81</v>
@@ -13993,13 +13990,13 @@
         <v>81</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -14082,10 +14079,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14197,14 +14194,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -14226,10 +14223,10 @@
         <v>193</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -14280,7 +14277,7 @@
         <v>81</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
@@ -14295,16 +14292,16 @@
         <v>101</v>
       </c>
       <c r="AK97" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN97" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>81</v>
@@ -14312,10 +14309,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14427,10 +14424,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14456,10 +14453,10 @@
         <v>135</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -14540,13 +14537,13 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="C100" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="C100" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>81</v>
@@ -14568,13 +14565,13 @@
         <v>81</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="L100" t="s" s="2">
+      <c r="M100" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>612</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -14657,10 +14654,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14772,14 +14769,14 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14801,10 +14798,10 @@
         <v>193</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14819,43 +14816,43 @@
         <v>81</v>
       </c>
       <c r="T102" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF102" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
@@ -14870,16 +14867,16 @@
         <v>101</v>
       </c>
       <c r="AK102" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN102" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>81</v>
@@ -14887,10 +14884,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14916,13 +14913,13 @@
         <v>193</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="N103" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>624</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14972,7 +14969,7 @@
         <v>81</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>79</v>
@@ -14987,16 +14984,16 @@
         <v>101</v>
       </c>
       <c r="AK103" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN103" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>627</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>81</v>
@@ -15004,10 +15001,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15119,10 +15116,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15148,10 +15145,10 @@
         <v>135</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -15232,13 +15229,13 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="C106" t="s" s="2">
         <v>631</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="C106" t="s" s="2">
-        <v>632</v>
       </c>
       <c r="D106" t="s" s="2">
         <v>81</v>
@@ -15349,10 +15346,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15464,10 +15461,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15493,14 +15490,14 @@
         <v>297</v>
       </c>
       <c r="L108" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="M108" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>636</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>81</v>
@@ -15513,43 +15510,43 @@
         <v>81</v>
       </c>
       <c r="T108" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF108" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>639</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>79</v>
@@ -15573,7 +15570,7 @@
         <v>81</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>81</v>
@@ -15581,10 +15578,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15610,14 +15607,14 @@
         <v>212</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>642</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>643</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>81</v>
@@ -15646,7 +15643,7 @@
       </c>
       <c r="Y109" s="2"/>
       <c r="Z109" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>81</v>
@@ -15664,7 +15661,7 @@
         <v>81</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>79</v>
@@ -15679,16 +15676,16 @@
         <v>101</v>
       </c>
       <c r="AK109" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="AL109" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="AL109" t="s" s="2">
+      <c r="AM109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN109" t="s" s="2">
         <v>647</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>648</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>81</v>
@@ -15696,10 +15693,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15722,19 +15719,19 @@
         <v>81</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="L110" t="s" s="2">
+      <c r="M110" t="s" s="2">
         <v>651</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>652</v>
       </c>
-      <c r="N110" t="s" s="2">
+      <c r="O110" t="s" s="2">
         <v>653</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>654</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>81</v>
@@ -15783,7 +15780,7 @@
         <v>81</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>79</v>
@@ -15798,7 +15795,7 @@
         <v>101</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>197</v>
@@ -15807,7 +15804,7 @@
         <v>81</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>81</v>
@@ -15815,10 +15812,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15841,19 +15838,19 @@
         <v>81</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="L111" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="L111" t="s" s="2">
+      <c r="M111" t="s" s="2">
         <v>659</v>
       </c>
-      <c r="M111" t="s" s="2">
+      <c r="N111" t="s" s="2">
         <v>660</v>
       </c>
-      <c r="N111" t="s" s="2">
+      <c r="O111" t="s" s="2">
         <v>661</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>662</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>81</v>
@@ -15902,7 +15899,7 @@
         <v>81</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>79</v>
@@ -15917,7 +15914,7 @@
         <v>101</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>197</v>
@@ -15926,7 +15923,7 @@
         <v>81</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>81</v>
@@ -15934,10 +15931,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15960,19 +15957,19 @@
         <v>81</v>
       </c>
       <c r="K112" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="L112" t="s" s="2">
         <v>666</v>
       </c>
-      <c r="L112" t="s" s="2">
+      <c r="M112" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="N112" t="s" s="2">
         <v>667</v>
       </c>
-      <c r="M112" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="N112" t="s" s="2">
+      <c r="O112" t="s" s="2">
         <v>668</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>669</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>81</v>
@@ -16021,7 +16018,7 @@
         <v>81</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>79</v>
@@ -16033,10 +16030,10 @@
         <v>81</v>
       </c>
       <c r="AJ112" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="AK112" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>671</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>197</v>
@@ -16053,10 +16050,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16168,10 +16165,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16281,13 +16278,13 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="C115" t="s" s="2">
         <v>674</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="C115" t="s" s="2">
-        <v>675</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>81</v>
@@ -16309,13 +16306,13 @@
         <v>81</v>
       </c>
       <c r="K115" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="L115" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="L115" t="s" s="2">
+      <c r="M115" t="s" s="2">
         <v>677</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>678</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -16398,14 +16395,14 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
@@ -16427,10 +16424,10 @@
         <v>135</v>
       </c>
       <c r="L116" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="M116" t="s" s="2">
         <v>681</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>682</v>
       </c>
       <c r="N116" t="s" s="2">
         <v>179</v>
@@ -16485,7 +16482,7 @@
         <v>81</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>79</v>
@@ -16517,10 +16514,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16546,14 +16543,14 @@
         <v>212</v>
       </c>
       <c r="L117" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="M117" t="s" s="2">
         <v>685</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>686</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>81</v>
@@ -16581,11 +16578,11 @@
         <v>206</v>
       </c>
       <c r="Y117" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="Z117" t="s" s="2">
         <v>688</v>
       </c>
-      <c r="Z117" t="s" s="2">
-        <v>689</v>
-      </c>
       <c r="AA117" t="s" s="2">
         <v>81</v>
       </c>
@@ -16602,7 +16599,7 @@
         <v>81</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>79</v>
@@ -16617,7 +16614,7 @@
         <v>101</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>197</v>
@@ -16626,7 +16623,7 @@
         <v>81</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>81</v>
@@ -16634,10 +16631,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16749,10 +16746,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16866,10 +16863,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16985,10 +16982,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17104,10 +17101,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17133,14 +17130,14 @@
         <v>320</v>
       </c>
       <c r="L122" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>697</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>698</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>81</v>
@@ -17189,7 +17186,7 @@
         <v>81</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>79</v>
@@ -17213,7 +17210,7 @@
         <v>81</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>81</v>
@@ -17221,10 +17218,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17336,10 +17333,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17453,10 +17450,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17485,10 +17482,10 @@
         <v>339</v>
       </c>
       <c r="M125" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="N125" t="s" s="2">
         <v>704</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>705</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>342</v>
@@ -17572,10 +17569,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17691,10 +17688,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17808,10 +17805,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17923,10 +17920,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17952,7 +17949,7 @@
         <v>135</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="M129" t="s" s="2">
         <v>374</v>
@@ -18036,10 +18033,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C130" t="s" s="2">
         <v>376</v>
@@ -18153,10 +18150,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18268,10 +18265,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18297,10 +18294,10 @@
         <v>193</v>
       </c>
       <c r="L132" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="M132" t="s" s="2">
         <v>714</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>715</v>
       </c>
       <c r="N132" t="s" s="2">
         <v>390</v>
@@ -18385,10 +18382,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18500,10 +18497,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18615,10 +18612,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18732,10 +18729,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18761,13 +18758,13 @@
         <v>438</v>
       </c>
       <c r="L136" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="M136" t="s" s="2">
         <v>720</v>
       </c>
-      <c r="M136" t="s" s="2">
+      <c r="N136" t="s" s="2">
         <v>721</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>722</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>442</v>
@@ -18819,7 +18816,7 @@
         <v>81</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>79</v>
@@ -18843,7 +18840,7 @@
         <v>81</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AO136" t="s" s="2">
         <v>81</v>
@@ -18851,10 +18848,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18877,17 +18874,17 @@
         <v>81</v>
       </c>
       <c r="K137" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="L137" t="s" s="2">
         <v>725</v>
       </c>
-      <c r="L137" t="s" s="2">
+      <c r="M137" t="s" s="2">
         <v>726</v>
-      </c>
-      <c r="M137" t="s" s="2">
-        <v>727</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>81</v>
@@ -18936,7 +18933,7 @@
         <v>81</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>79</v>
@@ -18951,7 +18948,7 @@
         <v>101</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AL137" t="s" s="2">
         <v>197</v>
@@ -18960,7 +18957,7 @@
         <v>81</v>
       </c>
       <c r="AN137" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AO137" t="s" s="2">
         <v>81</v>
@@ -18968,10 +18965,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18997,14 +18994,14 @@
         <v>109</v>
       </c>
       <c r="L138" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="M138" t="s" s="2">
         <v>732</v>
-      </c>
-      <c r="M138" t="s" s="2">
-        <v>733</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>81</v>
@@ -19032,11 +19029,11 @@
         <v>206</v>
       </c>
       <c r="Y138" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="Z138" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="Z138" t="s" s="2">
-        <v>489</v>
-      </c>
       <c r="AA138" t="s" s="2">
         <v>81</v>
       </c>
@@ -19053,7 +19050,7 @@
         <v>81</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>79</v>
@@ -19068,7 +19065,7 @@
         <v>101</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AL138" t="s" s="2">
         <v>197</v>
@@ -19077,7 +19074,7 @@
         <v>81</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AO138" t="s" s="2">
         <v>81</v>
@@ -19085,10 +19082,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19114,14 +19111,14 @@
         <v>304</v>
       </c>
       <c r="L139" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="M139" t="s" s="2">
         <v>737</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>738</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>81</v>
@@ -19170,7 +19167,7 @@
         <v>81</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>79</v>
@@ -19179,13 +19176,13 @@
         <v>89</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AL139" t="s" s="2">
         <v>197</v>
@@ -19194,7 +19191,7 @@
         <v>81</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AO139" t="s" s="2">
         <v>81</v>
@@ -19202,10 +19199,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19231,10 +19228,10 @@
         <v>297</v>
       </c>
       <c r="L140" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="M140" t="s" s="2">
         <v>744</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>745</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -19285,7 +19282,7 @@
         <v>81</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>79</v>
@@ -19300,7 +19297,7 @@
         <v>101</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AL140" t="s" s="2">
         <v>197</v>
@@ -19317,10 +19314,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19343,19 +19340,19 @@
         <v>81</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="L141" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="N141" t="s" s="2">
         <v>748</v>
       </c>
-      <c r="M141" t="s" s="2">
-        <v>748</v>
-      </c>
-      <c r="N141" t="s" s="2">
+      <c r="O141" t="s" s="2">
         <v>749</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>750</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>81</v>
@@ -19404,7 +19401,7 @@
         <v>81</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>79</v>
@@ -19419,10 +19416,10 @@
         <v>101</v>
       </c>
       <c r="AK141" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="AL141" t="s" s="2">
         <v>751</v>
-      </c>
-      <c r="AL141" t="s" s="2">
-        <v>752</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>81</v>
@@ -19436,10 +19433,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19551,10 +19548,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19668,14 +19665,14 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" t="s" s="2">
@@ -19697,10 +19694,10 @@
         <v>135</v>
       </c>
       <c r="L144" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="M144" t="s" s="2">
         <v>681</v>
-      </c>
-      <c r="M144" t="s" s="2">
-        <v>682</v>
       </c>
       <c r="N144" t="s" s="2">
         <v>179</v>
@@ -19755,7 +19752,7 @@
         <v>81</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>79</v>
@@ -19787,10 +19784,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19816,16 +19813,16 @@
         <v>212</v>
       </c>
       <c r="L145" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="M145" t="s" s="2">
         <v>757</v>
       </c>
-      <c r="M145" t="s" s="2">
+      <c r="N145" t="s" s="2">
         <v>758</v>
       </c>
-      <c r="N145" t="s" s="2">
+      <c r="O145" t="s" s="2">
         <v>759</v>
-      </c>
-      <c r="O145" t="s" s="2">
-        <v>760</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>81</v>
@@ -19853,11 +19850,11 @@
         <v>206</v>
       </c>
       <c r="Y145" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="Z145" t="s" s="2">
         <v>761</v>
       </c>
-      <c r="Z145" t="s" s="2">
-        <v>762</v>
-      </c>
       <c r="AA145" t="s" s="2">
         <v>81</v>
       </c>
@@ -19874,7 +19871,7 @@
         <v>81</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>89</v>
@@ -19889,16 +19886,16 @@
         <v>101</v>
       </c>
       <c r="AK145" t="s" s="2">
+        <v>762</v>
+      </c>
+      <c r="AL145" t="s" s="2">
         <v>763</v>
       </c>
-      <c r="AL145" t="s" s="2">
+      <c r="AM145" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN145" t="s" s="2">
         <v>764</v>
-      </c>
-      <c r="AM145" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN145" t="s" s="2">
-        <v>765</v>
       </c>
       <c r="AO145" t="s" s="2">
         <v>81</v>
@@ -19906,10 +19903,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19935,16 +19932,16 @@
         <v>264</v>
       </c>
       <c r="L146" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="M146" t="s" s="2">
         <v>767</v>
       </c>
-      <c r="M146" t="s" s="2">
+      <c r="N146" t="s" s="2">
         <v>768</v>
       </c>
-      <c r="N146" t="s" s="2">
+      <c r="O146" t="s" s="2">
         <v>769</v>
-      </c>
-      <c r="O146" t="s" s="2">
-        <v>770</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>81</v>
@@ -19993,7 +19990,7 @@
         <v>81</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>79</v>
@@ -20008,16 +20005,16 @@
         <v>101</v>
       </c>
       <c r="AK146" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="AL146" t="s" s="2">
         <v>771</v>
       </c>
-      <c r="AL146" t="s" s="2">
+      <c r="AM146" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN146" t="s" s="2">
         <v>772</v>
-      </c>
-      <c r="AM146" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN146" t="s" s="2">
-        <v>773</v>
       </c>
       <c r="AO146" t="s" s="2">
         <v>81</v>
@@ -20025,14 +20022,14 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" t="s" s="2">
@@ -20051,16 +20048,16 @@
         <v>81</v>
       </c>
       <c r="K147" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="L147" t="s" s="2">
         <v>776</v>
       </c>
-      <c r="L147" t="s" s="2">
+      <c r="M147" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="N147" t="s" s="2">
         <v>777</v>
-      </c>
-      <c r="M147" t="s" s="2">
-        <v>777</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>778</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
@@ -20110,7 +20107,7 @@
         <v>81</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>79</v>
@@ -20125,7 +20122,7 @@
         <v>101</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AL147" t="s" s="2">
         <v>197</v>
@@ -20134,7 +20131,7 @@
         <v>81</v>
       </c>
       <c r="AN147" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AO147" t="s" s="2">
         <v>81</v>
@@ -20142,10 +20139,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20257,10 +20254,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20374,10 +20371,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20403,13 +20400,13 @@
         <v>193</v>
       </c>
       <c r="L150" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="M150" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="N150" t="s" s="2">
         <v>784</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>784</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>785</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" t="s" s="2">
@@ -20459,16 +20456,16 @@
         <v>81</v>
       </c>
       <c r="AF150" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="AG150" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH150" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI150" t="s" s="2">
         <v>786</v>
-      </c>
-      <c r="AG150" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH150" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI150" t="s" s="2">
-        <v>787</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>101</v>
@@ -20491,10 +20488,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20520,13 +20517,13 @@
         <v>103</v>
       </c>
       <c r="L151" t="s" s="2">
+        <v>788</v>
+      </c>
+      <c r="M151" t="s" s="2">
         <v>789</v>
       </c>
-      <c r="M151" t="s" s="2">
+      <c r="N151" t="s" s="2">
         <v>790</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>791</v>
       </c>
       <c r="O151" s="2"/>
       <c r="P151" t="s" s="2">
@@ -20552,31 +20549,31 @@
         <v>81</v>
       </c>
       <c r="X151" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="Y151" t="s" s="2">
         <v>792</v>
       </c>
-      <c r="Y151" t="s" s="2">
+      <c r="Z151" t="s" s="2">
         <v>793</v>
       </c>
-      <c r="Z151" t="s" s="2">
+      <c r="AA151" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB151" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC151" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD151" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE151" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF151" t="s" s="2">
         <v>794</v>
-      </c>
-      <c r="AA151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF151" t="s" s="2">
-        <v>795</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>79</v>
@@ -20608,10 +20605,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20637,13 +20634,13 @@
         <v>183</v>
       </c>
       <c r="L152" t="s" s="2">
+        <v>796</v>
+      </c>
+      <c r="M152" t="s" s="2">
         <v>797</v>
       </c>
-      <c r="M152" t="s" s="2">
+      <c r="N152" t="s" s="2">
         <v>798</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>799</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
@@ -20693,7 +20690,7 @@
         <v>81</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>79</v>
@@ -20708,7 +20705,7 @@
         <v>101</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AL152" t="s" s="2">
         <v>81</v>
@@ -20725,10 +20722,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -20754,13 +20751,13 @@
         <v>193</v>
       </c>
       <c r="L153" t="s" s="2">
+        <v>802</v>
+      </c>
+      <c r="M153" t="s" s="2">
+        <v>802</v>
+      </c>
+      <c r="N153" t="s" s="2">
         <v>803</v>
-      </c>
-      <c r="M153" t="s" s="2">
-        <v>803</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>804</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
@@ -20810,7 +20807,7 @@
         <v>81</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>79</v>
@@ -20842,10 +20839,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20871,16 +20868,16 @@
         <v>304</v>
       </c>
       <c r="L154" t="s" s="2">
+        <v>806</v>
+      </c>
+      <c r="M154" t="s" s="2">
         <v>807</v>
       </c>
-      <c r="M154" t="s" s="2">
+      <c r="N154" t="s" s="2">
         <v>808</v>
       </c>
-      <c r="N154" t="s" s="2">
+      <c r="O154" t="s" s="2">
         <v>809</v>
-      </c>
-      <c r="O154" t="s" s="2">
-        <v>810</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>81</v>
@@ -20929,7 +20926,7 @@
         <v>81</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>79</v>
@@ -20944,10 +20941,10 @@
         <v>101</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>81</v>
@@ -20961,10 +20958,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -20987,19 +20984,19 @@
         <v>90</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="L155" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="M155" t="s" s="2">
         <v>813</v>
       </c>
-      <c r="M155" t="s" s="2">
+      <c r="N155" t="s" s="2">
         <v>814</v>
       </c>
-      <c r="N155" t="s" s="2">
+      <c r="O155" t="s" s="2">
         <v>815</v>
-      </c>
-      <c r="O155" t="s" s="2">
-        <v>816</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>81</v>
@@ -21048,7 +21045,7 @@
         <v>81</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>79</v>
@@ -21063,7 +21060,7 @@
         <v>101</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AL155" t="s" s="2">
         <v>197</v>
@@ -21080,10 +21077,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21195,10 +21192,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21312,14 +21309,14 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
@@ -21341,10 +21338,10 @@
         <v>135</v>
       </c>
       <c r="L158" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="M158" t="s" s="2">
         <v>681</v>
-      </c>
-      <c r="M158" t="s" s="2">
-        <v>682</v>
       </c>
       <c r="N158" t="s" s="2">
         <v>179</v>
@@ -21399,7 +21396,7 @@
         <v>81</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>79</v>
@@ -21431,10 +21428,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21457,16 +21454,16 @@
         <v>90</v>
       </c>
       <c r="K159" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="L159" t="s" s="2">
         <v>822</v>
       </c>
-      <c r="L159" t="s" s="2">
+      <c r="M159" t="s" s="2">
         <v>823</v>
       </c>
-      <c r="M159" t="s" s="2">
+      <c r="N159" t="s" s="2">
         <v>824</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>825</v>
       </c>
       <c r="O159" s="2"/>
       <c r="P159" t="s" s="2">
@@ -21516,7 +21513,7 @@
         <v>81</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>89</v>
@@ -21540,7 +21537,7 @@
         <v>81</v>
       </c>
       <c r="AN159" t="s" s="2">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="AO159" t="s" s="2">
         <v>81</v>
@@ -21548,10 +21545,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21577,10 +21574,10 @@
         <v>109</v>
       </c>
       <c r="L160" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="M160" t="s" s="2">
         <v>828</v>
-      </c>
-      <c r="M160" t="s" s="2">
-        <v>829</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -21610,11 +21607,11 @@
         <v>206</v>
       </c>
       <c r="Y160" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="Z160" t="s" s="2">
         <v>829</v>
       </c>
-      <c r="Z160" t="s" s="2">
-        <v>830</v>
-      </c>
       <c r="AA160" t="s" s="2">
         <v>81</v>
       </c>
@@ -21631,7 +21628,7 @@
         <v>81</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>89</v>
@@ -21646,7 +21643,7 @@
         <v>101</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AL160" t="s" s="2">
         <v>197</v>

--- a/refs/heads/master/StructureDefinition-PatientLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PatientLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:30:32+00:00</t>
+    <t>2024-05-31T20:52:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PatientLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:52:22+00:00</t>
+    <t>2024-06-03T14:23:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PatientLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:23:07+00:00</t>
+    <t>2024-06-03T14:39:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PatientLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PatientLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5945" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5945" uniqueCount="832">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T14:45:33+00:00</t>
+    <t>2024-06-14T16:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -597,7 +597,7 @@
 </t>
   </si>
   <si>
-    <t>Listados de Id de Paciente. De poseer una CI con RUN vigente, este DEBE ser ingresado</t>
+    <t>Identificador de paciente</t>
   </si>
   <si>
     <t>Este es el listado de Identificaciones de un paciente. Se procura como R2 el RUN, pero en caso de no existir ese identificador se debe ocupar otro nacional u otro otorgado por país extranjero</t>
@@ -917,6 +917,9 @@
   </si>
   <si>
     <t>Patient.identifier.value</t>
+  </si>
+  <si>
+    <t>Valor del identificador</t>
   </si>
   <si>
     <t>Número o valor de identificación</t>
@@ -1410,7 +1413,7 @@
     <t>Orden de uso del método de contacto, siendo 1 = prioritario</t>
   </si>
   <si>
-    <t>Forma de telecomunicación para el punto de contacto: qué sistema de comunicación se requiere para hacer uso del contacto.</t>
+    <t>Sistema de contacto</t>
   </si>
   <si>
     <t>Tipo de contacto para HL7 FHIR</t>
@@ -1435,7 +1438,7 @@
     <t>Patient.telecom.value</t>
   </si>
   <si>
-    <t>Dato del contato del paciente descrito</t>
+    <t>Valor de contacto</t>
   </si>
   <si>
     <t>Valor del contacto como por ejemplo el numero de telefono fijo o de móvil o el email del Paciente</t>
@@ -5083,7 +5086,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>80</v>
@@ -6017,10 +6020,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>90</v>
@@ -6604,7 +6607,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>89</v>
@@ -7195,13 +7198,13 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>81</v>
@@ -7216,10 +7219,10 @@
         <v>290</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -7233,7 +7236,7 @@
         <v>81</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>81</v>
@@ -7269,7 +7272,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -7284,7 +7287,7 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>81</v>
@@ -7293,7 +7296,7 @@
         <v>81</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>81</v>
@@ -7301,10 +7304,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7327,13 +7330,13 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -7384,7 +7387,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -7399,7 +7402,7 @@
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>81</v>
@@ -7408,7 +7411,7 @@
         <v>81</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>81</v>
@@ -7416,10 +7419,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7442,16 +7445,16 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -7501,7 +7504,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -7516,7 +7519,7 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>81</v>
@@ -7525,7 +7528,7 @@
         <v>81</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>81</v>
@@ -7533,10 +7536,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7562,67 +7565,67 @@
         <v>264</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="P40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q40" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF40" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="P40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q40" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="R40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -7637,13 +7640,13 @@
         <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>197</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -7654,10 +7657,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7680,19 +7683,19 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -7729,10 +7732,10 @@
         <v>81</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>81</v>
@@ -7741,7 +7744,7 @@
         <v>139</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -7756,16 +7759,16 @@
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>81</v>
@@ -7773,13 +7776,13 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>81</v>
@@ -7801,19 +7804,19 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -7862,7 +7865,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7877,16 +7880,16 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>81</v>
@@ -7894,10 +7897,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -8009,10 +8012,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -8126,10 +8129,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -8155,16 +8158,16 @@
         <v>109</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -8174,7 +8177,7 @@
         <v>81</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>81</v>
@@ -8192,10 +8195,10 @@
         <v>206</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>81</v>
@@ -8213,7 +8216,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -8228,7 +8231,7 @@
         <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>81</v>
@@ -8237,7 +8240,7 @@
         <v>81</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>81</v>
@@ -8245,10 +8248,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8274,16 +8277,16 @@
         <v>193</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
@@ -8332,7 +8335,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -8347,7 +8350,7 @@
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>81</v>
@@ -8356,7 +8359,7 @@
         <v>81</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>81</v>
@@ -8364,14 +8367,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -8393,13 +8396,13 @@
         <v>193</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8449,7 +8452,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -8464,7 +8467,7 @@
         <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>81</v>
@@ -8473,7 +8476,7 @@
         <v>81</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>81</v>
@@ -8481,10 +8484,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8510,10 +8513,10 @@
         <v>193</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -8596,10 +8599,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8625,10 +8628,10 @@
         <v>135</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8709,13 +8712,13 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>81</v>
@@ -8737,13 +8740,13 @@
         <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8826,10 +8829,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8855,10 +8858,10 @@
         <v>193</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8882,7 +8885,7 @@
         <v>81</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="X51" t="s" s="2">
         <v>81</v>
@@ -8909,7 +8912,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8941,14 +8944,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8970,13 +8973,13 @@
         <v>193</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -9026,7 +9029,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -9041,7 +9044,7 @@
         <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>81</v>
@@ -9050,7 +9053,7 @@
         <v>81</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>81</v>
@@ -9058,10 +9061,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -9087,10 +9090,10 @@
         <v>193</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -9141,7 +9144,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -9156,7 +9159,7 @@
         <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>81</v>
@@ -9165,7 +9168,7 @@
         <v>81</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>81</v>
@@ -9173,10 +9176,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9202,10 +9205,10 @@
         <v>193</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -9256,7 +9259,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -9271,7 +9274,7 @@
         <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>81</v>
@@ -9280,7 +9283,7 @@
         <v>81</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>81</v>
@@ -9288,10 +9291,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9314,17 +9317,17 @@
         <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -9373,7 +9376,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -9388,7 +9391,7 @@
         <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>81</v>
@@ -9397,7 +9400,7 @@
         <v>81</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>81</v>
@@ -9405,13 +9408,13 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>81</v>
@@ -9433,19 +9436,19 @@
         <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>81</v>
@@ -9494,7 +9497,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -9509,16 +9512,16 @@
         <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>81</v>
@@ -9526,10 +9529,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9641,10 +9644,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9758,10 +9761,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9787,16 +9790,16 @@
         <v>109</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>81</v>
@@ -9806,7 +9809,7 @@
         <v>81</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>81</v>
@@ -9824,10 +9827,10 @@
         <v>206</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>81</v>
@@ -9845,7 +9848,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9860,7 +9863,7 @@
         <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>81</v>
@@ -9869,7 +9872,7 @@
         <v>81</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>81</v>
@@ -9877,10 +9880,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9906,16 +9909,16 @@
         <v>193</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>81</v>
@@ -9964,7 +9967,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9979,7 +9982,7 @@
         <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>81</v>
@@ -9988,7 +9991,7 @@
         <v>81</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>81</v>
@@ -9996,14 +9999,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -10025,13 +10028,13 @@
         <v>193</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -10081,7 +10084,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -10096,7 +10099,7 @@
         <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>81</v>
@@ -10105,7 +10108,7 @@
         <v>81</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>81</v>
@@ -10113,14 +10116,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -10142,13 +10145,13 @@
         <v>193</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -10198,7 +10201,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -10213,7 +10216,7 @@
         <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>81</v>
@@ -10222,7 +10225,7 @@
         <v>81</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>81</v>
@@ -10230,10 +10233,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10259,10 +10262,10 @@
         <v>193</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -10313,7 +10316,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -10328,7 +10331,7 @@
         <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>81</v>
@@ -10337,7 +10340,7 @@
         <v>81</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>81</v>
@@ -10345,10 +10348,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10374,10 +10377,10 @@
         <v>193</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -10428,7 +10431,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -10443,7 +10446,7 @@
         <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>81</v>
@@ -10452,7 +10455,7 @@
         <v>81</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>81</v>
@@ -10460,10 +10463,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10486,17 +10489,17 @@
         <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>81</v>
@@ -10545,7 +10548,7 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -10560,7 +10563,7 @@
         <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>81</v>
@@ -10569,7 +10572,7 @@
         <v>81</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>81</v>
@@ -10577,10 +10580,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10603,19 +10606,19 @@
         <v>90</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>81</v>
@@ -10664,7 +10667,7 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -10679,16 +10682,16 @@
         <v>101</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>81</v>
@@ -10696,10 +10699,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10811,10 +10814,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10928,10 +10931,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10939,7 +10942,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>89</v>
@@ -10957,10 +10960,10 @@
         <v>109</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10990,10 +10993,10 @@
         <v>206</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>81</v>
@@ -11011,7 +11014,7 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -11020,13 +11023,13 @@
         <v>89</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>81</v>
@@ -11035,7 +11038,7 @@
         <v>81</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>81</v>
@@ -11043,10 +11046,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11054,7 +11057,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>89</v>
@@ -11072,16 +11075,16 @@
         <v>193</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>81</v>
@@ -11130,7 +11133,7 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -11145,7 +11148,7 @@
         <v>101</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>81</v>
@@ -11154,7 +11157,7 @@
         <v>81</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>81</v>
@@ -11162,10 +11165,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11191,16 +11194,16 @@
         <v>109</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>81</v>
@@ -11229,7 +11232,7 @@
       </c>
       <c r="Y71" s="2"/>
       <c r="Z71" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>81</v>
@@ -11247,7 +11250,7 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -11262,7 +11265,7 @@
         <v>101</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>81</v>
@@ -11271,7 +11274,7 @@
         <v>81</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>81</v>
@@ -11279,10 +11282,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11305,16 +11308,16 @@
         <v>90</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11364,7 +11367,7 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -11396,10 +11399,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11422,13 +11425,13 @@
         <v>90</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -11479,7 +11482,7 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -11494,7 +11497,7 @@
         <v>101</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>81</v>
@@ -11511,10 +11514,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11540,16 +11543,16 @@
         <v>109</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>81</v>
@@ -11577,10 +11580,10 @@
         <v>206</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>81</v>
@@ -11598,7 +11601,7 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -11613,16 +11616,16 @@
         <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>81</v>
@@ -11630,10 +11633,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11656,19 +11659,19 @@
         <v>90</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>81</v>
@@ -11717,7 +11720,7 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -11732,27 +11735,27 @@
         <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11775,19 +11778,19 @@
         <v>90</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>81</v>
@@ -11836,7 +11839,7 @@
         <v>81</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -11851,7 +11854,7 @@
         <v>101</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>197</v>
@@ -11860,7 +11863,7 @@
         <v>81</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>81</v>
@@ -11868,10 +11871,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11894,19 +11897,19 @@
         <v>81</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>81</v>
@@ -11955,7 +11958,7 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11970,7 +11973,7 @@
         <v>101</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>81</v>
@@ -11979,7 +11982,7 @@
         <v>81</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>81</v>
@@ -11987,10 +11990,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12102,10 +12105,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12134,7 +12137,7 @@
         <v>136</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -12217,13 +12220,13 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>81</v>
@@ -12245,16 +12248,16 @@
         <v>81</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -12336,13 +12339,13 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>81</v>
@@ -12364,16 +12367,16 @@
         <v>81</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -12455,13 +12458,13 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>81</v>
@@ -12483,13 +12486,13 @@
         <v>81</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="L82" t="s" s="2">
-        <v>529</v>
-      </c>
       <c r="M82" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -12572,10 +12575,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12601,16 +12604,16 @@
         <v>109</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>81</v>
@@ -12623,7 +12626,7 @@
         <v>81</v>
       </c>
       <c r="T83" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="U83" t="s" s="2">
         <v>81</v>
@@ -12638,10 +12641,10 @@
         <v>206</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>81</v>
@@ -12659,7 +12662,7 @@
         <v>81</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -12674,7 +12677,7 @@
         <v>101</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>81</v>
@@ -12683,7 +12686,7 @@
         <v>81</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>81</v>
@@ -12691,10 +12694,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12720,13 +12723,13 @@
         <v>109</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12740,7 +12743,7 @@
         <v>81</v>
       </c>
       <c r="T84" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="U84" t="s" s="2">
         <v>81</v>
@@ -12755,10 +12758,10 @@
         <v>206</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>81</v>
@@ -12776,7 +12779,7 @@
         <v>81</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -12791,7 +12794,7 @@
         <v>101</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>81</v>
@@ -12800,7 +12803,7 @@
         <v>81</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>81</v>
@@ -12808,10 +12811,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12837,16 +12840,16 @@
         <v>193</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>81</v>
@@ -12859,7 +12862,7 @@
         <v>81</v>
       </c>
       <c r="T85" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="U85" t="s" s="2">
         <v>81</v>
@@ -12895,7 +12898,7 @@
         <v>81</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -12910,7 +12913,7 @@
         <v>101</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>81</v>
@@ -12919,7 +12922,7 @@
         <v>81</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>81</v>
@@ -12927,10 +12930,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12956,10 +12959,10 @@
         <v>193</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12974,7 +12977,7 @@
         <v>81</v>
       </c>
       <c r="T86" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="U86" t="s" s="2">
         <v>81</v>
@@ -13010,7 +13013,7 @@
         <v>81</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
@@ -13025,7 +13028,7 @@
         <v>101</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>81</v>
@@ -13034,7 +13037,7 @@
         <v>81</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>81</v>
@@ -13042,14 +13045,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -13071,10 +13074,10 @@
         <v>193</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -13089,7 +13092,7 @@
         <v>81</v>
       </c>
       <c r="T87" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="U87" t="s" s="2">
         <v>81</v>
@@ -13125,7 +13128,7 @@
         <v>81</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -13140,7 +13143,7 @@
         <v>101</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>81</v>
@@ -13149,7 +13152,7 @@
         <v>81</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>81</v>
@@ -13157,10 +13160,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13186,10 +13189,10 @@
         <v>193</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -13272,10 +13275,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13301,10 +13304,10 @@
         <v>135</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -13385,13 +13388,13 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>81</v>
@@ -13413,13 +13416,13 @@
         <v>81</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -13502,10 +13505,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13531,10 +13534,10 @@
         <v>193</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -13558,7 +13561,7 @@
         <v>81</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="X91" t="s" s="2">
         <v>81</v>
@@ -13585,7 +13588,7 @@
         <v>81</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -13617,14 +13620,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13646,13 +13649,13 @@
         <v>193</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13666,7 +13669,7 @@
         <v>81</v>
       </c>
       <c r="T92" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="U92" t="s" s="2">
         <v>81</v>
@@ -13702,7 +13705,7 @@
         <v>81</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
@@ -13717,7 +13720,7 @@
         <v>101</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>81</v>
@@ -13726,7 +13729,7 @@
         <v>81</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>81</v>
@@ -13734,10 +13737,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13763,10 +13766,10 @@
         <v>193</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13849,10 +13852,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13878,10 +13881,10 @@
         <v>135</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13962,13 +13965,13 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>81</v>
@@ -13990,13 +13993,13 @@
         <v>81</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -14079,10 +14082,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14108,10 +14111,10 @@
         <v>193</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -14135,7 +14138,7 @@
         <v>81</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="X96" t="s" s="2">
         <v>81</v>
@@ -14162,7 +14165,7 @@
         <v>81</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
@@ -14194,14 +14197,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -14223,10 +14226,10 @@
         <v>193</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -14277,7 +14280,7 @@
         <v>81</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
@@ -14292,7 +14295,7 @@
         <v>101</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>81</v>
@@ -14301,7 +14304,7 @@
         <v>81</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>81</v>
@@ -14309,10 +14312,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14338,10 +14341,10 @@
         <v>193</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -14424,10 +14427,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14453,10 +14456,10 @@
         <v>135</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -14537,13 +14540,13 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="B100" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="B100" t="s" s="2">
-        <v>606</v>
-      </c>
       <c r="C100" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>81</v>
@@ -14565,13 +14568,13 @@
         <v>81</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -14654,10 +14657,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14683,10 +14686,10 @@
         <v>193</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14710,7 +14713,7 @@
         <v>81</v>
       </c>
       <c r="W101" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="X101" t="s" s="2">
         <v>81</v>
@@ -14737,7 +14740,7 @@
         <v>81</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
@@ -14769,14 +14772,14 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14798,10 +14801,10 @@
         <v>193</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14816,7 +14819,7 @@
         <v>81</v>
       </c>
       <c r="T102" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="U102" t="s" s="2">
         <v>81</v>
@@ -14852,7 +14855,7 @@
         <v>81</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
@@ -14867,7 +14870,7 @@
         <v>101</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>81</v>
@@ -14876,7 +14879,7 @@
         <v>81</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>81</v>
@@ -14884,10 +14887,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14913,13 +14916,13 @@
         <v>193</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14969,7 +14972,7 @@
         <v>81</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>79</v>
@@ -14984,7 +14987,7 @@
         <v>101</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>81</v>
@@ -14993,7 +14996,7 @@
         <v>81</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>81</v>
@@ -15001,10 +15004,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15030,10 +15033,10 @@
         <v>193</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -15116,10 +15119,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15145,10 +15148,10 @@
         <v>135</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -15229,13 +15232,13 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D106" t="s" s="2">
         <v>81</v>
@@ -15346,10 +15349,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15375,10 +15378,10 @@
         <v>193</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15402,7 +15405,7 @@
         <v>81</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="X107" t="s" s="2">
         <v>81</v>
@@ -15429,7 +15432,7 @@
         <v>81</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>79</v>
@@ -15461,10 +15464,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15487,17 +15490,17 @@
         <v>90</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>81</v>
@@ -15510,7 +15513,7 @@
         <v>81</v>
       </c>
       <c r="T108" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="U108" t="s" s="2">
         <v>81</v>
@@ -15546,7 +15549,7 @@
         <v>81</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>79</v>
@@ -15561,7 +15564,7 @@
         <v>101</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>81</v>
@@ -15570,7 +15573,7 @@
         <v>81</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>81</v>
@@ -15578,10 +15581,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15607,14 +15610,14 @@
         <v>212</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>81</v>
@@ -15643,7 +15646,7 @@
       </c>
       <c r="Y109" s="2"/>
       <c r="Z109" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>81</v>
@@ -15661,7 +15664,7 @@
         <v>81</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>79</v>
@@ -15676,16 +15679,16 @@
         <v>101</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>81</v>
@@ -15693,10 +15696,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15719,19 +15722,19 @@
         <v>81</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>81</v>
@@ -15780,7 +15783,7 @@
         <v>81</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>79</v>
@@ -15795,7 +15798,7 @@
         <v>101</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>197</v>
@@ -15804,7 +15807,7 @@
         <v>81</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>81</v>
@@ -15812,10 +15815,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15838,19 +15841,19 @@
         <v>81</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>81</v>
@@ -15899,7 +15902,7 @@
         <v>81</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>79</v>
@@ -15914,7 +15917,7 @@
         <v>101</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>197</v>
@@ -15923,7 +15926,7 @@
         <v>81</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>81</v>
@@ -15931,10 +15934,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15957,19 +15960,19 @@
         <v>81</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>81</v>
@@ -16018,7 +16021,7 @@
         <v>81</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>79</v>
@@ -16030,10 +16033,10 @@
         <v>81</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>197</v>
@@ -16050,10 +16053,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16165,10 +16168,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16278,13 +16281,13 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="B115" t="s" s="2">
         <v>673</v>
       </c>
-      <c r="B115" t="s" s="2">
-        <v>672</v>
-      </c>
       <c r="C115" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>81</v>
@@ -16306,13 +16309,13 @@
         <v>81</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -16395,14 +16398,14 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
@@ -16424,10 +16427,10 @@
         <v>135</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N116" t="s" s="2">
         <v>179</v>
@@ -16482,7 +16485,7 @@
         <v>81</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>79</v>
@@ -16514,10 +16517,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16543,14 +16546,14 @@
         <v>212</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>81</v>
@@ -16578,10 +16581,10 @@
         <v>206</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>81</v>
@@ -16599,7 +16602,7 @@
         <v>81</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>79</v>
@@ -16614,7 +16617,7 @@
         <v>101</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>197</v>
@@ -16623,7 +16626,7 @@
         <v>81</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>81</v>
@@ -16631,10 +16634,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16746,10 +16749,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16863,10 +16866,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16982,10 +16985,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17101,10 +17104,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17127,17 +17130,17 @@
         <v>81</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>81</v>
@@ -17186,7 +17189,7 @@
         <v>81</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>79</v>
@@ -17201,7 +17204,7 @@
         <v>101</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>197</v>
@@ -17210,7 +17213,7 @@
         <v>81</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>81</v>
@@ -17218,10 +17221,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17333,10 +17336,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17450,10 +17453,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17479,16 +17482,16 @@
         <v>109</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="O125" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>81</v>
@@ -17498,7 +17501,7 @@
         <v>81</v>
       </c>
       <c r="S125" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="T125" t="s" s="2">
         <v>81</v>
@@ -17516,10 +17519,10 @@
         <v>206</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Z125" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AA125" t="s" s="2">
         <v>81</v>
@@ -17537,7 +17540,7 @@
         <v>81</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>79</v>
@@ -17552,7 +17555,7 @@
         <v>101</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>81</v>
@@ -17561,7 +17564,7 @@
         <v>81</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>81</v>
@@ -17569,10 +17572,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17598,16 +17601,16 @@
         <v>193</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>81</v>
@@ -17656,7 +17659,7 @@
         <v>81</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>79</v>
@@ -17671,7 +17674,7 @@
         <v>101</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>81</v>
@@ -17680,7 +17683,7 @@
         <v>81</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>81</v>
@@ -17688,14 +17691,14 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
@@ -17717,13 +17720,13 @@
         <v>193</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
@@ -17773,7 +17776,7 @@
         <v>81</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>79</v>
@@ -17788,7 +17791,7 @@
         <v>101</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>81</v>
@@ -17797,7 +17800,7 @@
         <v>81</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>81</v>
@@ -17805,10 +17808,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17834,10 +17837,10 @@
         <v>193</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" s="2"/>
@@ -17920,10 +17923,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17949,10 +17952,10 @@
         <v>135</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -18033,13 +18036,13 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D130" t="s" s="2">
         <v>81</v>
@@ -18061,13 +18064,13 @@
         <v>81</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -18150,10 +18153,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18179,10 +18182,10 @@
         <v>193</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -18206,7 +18209,7 @@
         <v>81</v>
       </c>
       <c r="W131" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="X131" t="s" s="2">
         <v>81</v>
@@ -18233,7 +18236,7 @@
         <v>81</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>79</v>
@@ -18265,14 +18268,14 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" t="s" s="2">
@@ -18294,13 +18297,13 @@
         <v>193</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
@@ -18350,7 +18353,7 @@
         <v>81</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>79</v>
@@ -18365,7 +18368,7 @@
         <v>101</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>81</v>
@@ -18374,7 +18377,7 @@
         <v>81</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>81</v>
@@ -18382,10 +18385,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18411,10 +18414,10 @@
         <v>193</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
@@ -18465,7 +18468,7 @@
         <v>81</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>79</v>
@@ -18480,7 +18483,7 @@
         <v>101</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>81</v>
@@ -18489,7 +18492,7 @@
         <v>81</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>81</v>
@@ -18497,10 +18500,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18526,10 +18529,10 @@
         <v>193</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" s="2"/>
@@ -18580,7 +18583,7 @@
         <v>81</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>79</v>
@@ -18595,7 +18598,7 @@
         <v>101</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>81</v>
@@ -18604,7 +18607,7 @@
         <v>81</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>81</v>
@@ -18612,10 +18615,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18638,17 +18641,17 @@
         <v>90</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>81</v>
@@ -18697,7 +18700,7 @@
         <v>81</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>79</v>
@@ -18712,7 +18715,7 @@
         <v>101</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>81</v>
@@ -18721,7 +18724,7 @@
         <v>81</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>81</v>
@@ -18729,10 +18732,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18755,19 +18758,19 @@
         <v>81</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="O136" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>81</v>
@@ -18816,7 +18819,7 @@
         <v>81</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>79</v>
@@ -18831,7 +18834,7 @@
         <v>101</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>197</v>
@@ -18840,7 +18843,7 @@
         <v>81</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="AO136" t="s" s="2">
         <v>81</v>
@@ -18848,10 +18851,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18874,17 +18877,17 @@
         <v>81</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>81</v>
@@ -18933,7 +18936,7 @@
         <v>81</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>79</v>
@@ -18948,7 +18951,7 @@
         <v>101</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AL137" t="s" s="2">
         <v>197</v>
@@ -18957,7 +18960,7 @@
         <v>81</v>
       </c>
       <c r="AN137" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AO137" t="s" s="2">
         <v>81</v>
@@ -18965,10 +18968,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18994,14 +18997,14 @@
         <v>109</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>81</v>
@@ -19029,10 +19032,10 @@
         <v>206</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>81</v>
@@ -19050,7 +19053,7 @@
         <v>81</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>79</v>
@@ -19065,7 +19068,7 @@
         <v>101</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AL138" t="s" s="2">
         <v>197</v>
@@ -19074,7 +19077,7 @@
         <v>81</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AO138" t="s" s="2">
         <v>81</v>
@@ -19082,10 +19085,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19108,17 +19111,17 @@
         <v>81</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>81</v>
@@ -19167,7 +19170,7 @@
         <v>81</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>79</v>
@@ -19176,13 +19179,13 @@
         <v>89</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AL139" t="s" s="2">
         <v>197</v>
@@ -19191,7 +19194,7 @@
         <v>81</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AO139" t="s" s="2">
         <v>81</v>
@@ -19199,10 +19202,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19225,13 +19228,13 @@
         <v>81</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -19282,7 +19285,7 @@
         <v>81</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>79</v>
@@ -19297,7 +19300,7 @@
         <v>101</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AL140" t="s" s="2">
         <v>197</v>
@@ -19314,10 +19317,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19340,19 +19343,19 @@
         <v>81</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>81</v>
@@ -19401,7 +19404,7 @@
         <v>81</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>79</v>
@@ -19416,10 +19419,10 @@
         <v>101</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>81</v>
@@ -19433,10 +19436,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19548,10 +19551,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19665,14 +19668,14 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" t="s" s="2">
@@ -19694,10 +19697,10 @@
         <v>135</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N144" t="s" s="2">
         <v>179</v>
@@ -19752,7 +19755,7 @@
         <v>81</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>79</v>
@@ -19784,10 +19787,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19813,16 +19816,16 @@
         <v>212</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O145" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>81</v>
@@ -19850,10 +19853,10 @@
         <v>206</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="Z145" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AA145" t="s" s="2">
         <v>81</v>
@@ -19871,7 +19874,7 @@
         <v>81</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>89</v>
@@ -19886,16 +19889,16 @@
         <v>101</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN145" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AO145" t="s" s="2">
         <v>81</v>
@@ -19903,10 +19906,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19932,16 +19935,16 @@
         <v>264</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="O146" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>81</v>
@@ -19990,7 +19993,7 @@
         <v>81</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>79</v>
@@ -20005,16 +20008,16 @@
         <v>101</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN146" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AO146" t="s" s="2">
         <v>81</v>
@@ -20022,14 +20025,14 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" t="s" s="2">
@@ -20048,16 +20051,16 @@
         <v>81</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
@@ -20107,7 +20110,7 @@
         <v>81</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>79</v>
@@ -20122,7 +20125,7 @@
         <v>101</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="AL147" t="s" s="2">
         <v>197</v>
@@ -20131,7 +20134,7 @@
         <v>81</v>
       </c>
       <c r="AN147" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="AO147" t="s" s="2">
         <v>81</v>
@@ -20139,10 +20142,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20254,10 +20257,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20371,10 +20374,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20400,13 +20403,13 @@
         <v>193</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" t="s" s="2">
@@ -20456,7 +20459,7 @@
         <v>81</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>79</v>
@@ -20465,7 +20468,7 @@
         <v>89</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>101</v>
@@ -20488,10 +20491,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20517,13 +20520,13 @@
         <v>103</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="O151" s="2"/>
       <c r="P151" t="s" s="2">
@@ -20549,13 +20552,13 @@
         <v>81</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="Z151" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="AA151" t="s" s="2">
         <v>81</v>
@@ -20573,7 +20576,7 @@
         <v>81</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>79</v>
@@ -20605,10 +20608,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20634,13 +20637,13 @@
         <v>183</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
@@ -20690,7 +20693,7 @@
         <v>81</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>79</v>
@@ -20705,7 +20708,7 @@
         <v>101</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="AL152" t="s" s="2">
         <v>81</v>
@@ -20722,10 +20725,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -20751,13 +20754,13 @@
         <v>193</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
@@ -20807,7 +20810,7 @@
         <v>81</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>79</v>
@@ -20839,10 +20842,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20865,19 +20868,19 @@
         <v>90</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="O154" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>81</v>
@@ -20926,7 +20929,7 @@
         <v>81</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>79</v>
@@ -20941,10 +20944,10 @@
         <v>101</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>81</v>
@@ -20958,10 +20961,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -20984,19 +20987,19 @@
         <v>90</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="O155" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>81</v>
@@ -21045,7 +21048,7 @@
         <v>81</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>79</v>
@@ -21060,7 +21063,7 @@
         <v>101</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="AL155" t="s" s="2">
         <v>197</v>
@@ -21077,10 +21080,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21192,10 +21195,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21309,14 +21312,14 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
@@ -21338,10 +21341,10 @@
         <v>135</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N158" t="s" s="2">
         <v>179</v>
@@ -21396,7 +21399,7 @@
         <v>81</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>79</v>
@@ -21428,10 +21431,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21454,16 +21457,16 @@
         <v>90</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="O159" s="2"/>
       <c r="P159" t="s" s="2">
@@ -21513,7 +21516,7 @@
         <v>81</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>89</v>
@@ -21537,7 +21540,7 @@
         <v>81</v>
       </c>
       <c r="AN159" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="AO159" t="s" s="2">
         <v>81</v>
@@ -21545,10 +21548,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21574,10 +21577,10 @@
         <v>109</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -21607,10 +21610,10 @@
         <v>206</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="Z160" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="AA160" t="s" s="2">
         <v>81</v>
@@ -21628,7 +21631,7 @@
         <v>81</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>89</v>
@@ -21643,7 +21646,7 @@
         <v>101</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="AL160" t="s" s="2">
         <v>197</v>

--- a/refs/heads/master/StructureDefinition-PatientLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T16:20:30+00:00</t>
+    <t>2024-06-14T18:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PatientLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T18:56:59+00:00</t>
+    <t>2024-06-18T19:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PatientLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T19:34:09+00:00</t>
+    <t>2024-06-18T20:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PatientLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T20:03:27+00:00</t>
+    <t>2024-06-19T19:58:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PatientLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T19:58:24+00:00</t>
+    <t>2024-06-19T20:13:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PatientLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T20:13:08+00:00</t>
+    <t>2024-06-21T14:59:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PatientLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T14:59:52+00:00</t>
+    <t>2024-06-21T15:26:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PatientLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T15:26:57+00:00</t>
+    <t>2024-06-21T18:16:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PatientLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T18:16:33+00:00</t>
+    <t>2024-06-21T21:35:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2418,7 +2418,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|Practitioner)
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreOrganizacionCl|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePrestadorCl)
 </t>
   </si>
   <si>
@@ -2933,7 +2933,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="101.52734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="138.72265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/refs/heads/master/StructureDefinition-PatientLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PatientLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5945" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5946" uniqueCount="832">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T21:35:59+00:00</t>
+    <t>2024-06-24T21:09:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -499,10 +499,10 @@
 </t>
   </si>
   <si>
-    <t>Codigo de Identificación de países</t>
-  </si>
-  <si>
-    <t>Esta extensión incluye códigos de paises de origen</t>
+    <t>Codigo de Paises</t>
+  </si>
+  <si>
+    <t>Esta extensión incluye códigos de paises</t>
   </si>
   <si>
     <t>Patient.extension:PaisOrigen</t>
@@ -643,6 +643,12 @@
     <t>Patient.identifier.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
@@ -655,7 +661,7 @@
     <t>usual | official | temp | secondary | old (If known)</t>
   </si>
   <si>
-    <t>Se definirá este uso siempre como "official" debido a que cualquier ID presentado para motivos de este perfil deb ser de este tipo</t>
+    <t>De contar el Paciente con una Cédula de Identidad Nacional, se sugiere el uso de esta como identificador</t>
   </si>
   <si>
     <t>Se definirá como official pues en una primera etapa solo se considerarán los identidicadores en esa categoría. Para una segunda etapa se abrirá este elemento para cualquier clase de identificador</t>
@@ -748,12 +754,6 @@
   </si>
   <si>
     <t>Patient.identifier.type.coding.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Patient.identifier.type.coding.system</t>
@@ -2202,7 +2202,7 @@
     <t>Nombre registrado oficialmente en el Registro Civil</t>
   </si>
   <si>
-    <t>El use DEBE ser de valor de código ´official´</t>
+    <t>El use DEBE ser de valor de código "official"</t>
   </si>
   <si>
     <t>Patient.contact.name.text</t>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -5326,7 +5326,7 @@
         <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>81</v>
@@ -5338,12 +5338,14 @@
         <v>135</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>136</v>
+        <v>199</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>81</v>
@@ -5383,7 +5385,7 @@
         <v>138</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>81</v>
@@ -5392,7 +5394,7 @@
         <v>139</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -5407,7 +5409,7 @@
         <v>141</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>81</v>
@@ -5424,10 +5426,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5453,16 +5455,16 @@
         <v>109</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>81</v>
@@ -5487,13 +5489,13 @@
         <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>81</v>
@@ -5511,7 +5513,7 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -5526,7 +5528,7 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>81</v>
@@ -5543,10 +5545,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5569,19 +5571,19 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>81</v>
@@ -5606,13 +5608,13 @@
         <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>81</v>
@@ -5630,7 +5632,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -5645,7 +5647,7 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>81</v>
@@ -5654,7 +5656,7 @@
         <v>81</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>81</v>
@@ -5662,10 +5664,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5777,10 +5779,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5851,7 +5853,7 @@
         <v>138</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>81</v>
@@ -5860,7 +5862,7 @@
         <v>139</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -5892,13 +5894,13 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>81</v>
@@ -5977,7 +5979,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -6009,10 +6011,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -6035,19 +6037,19 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>81</v>
@@ -6096,7 +6098,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -6111,7 +6113,7 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>81</v>
@@ -6120,7 +6122,7 @@
         <v>81</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>81</v>
@@ -6128,10 +6130,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -6243,10 +6245,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -6272,10 +6274,10 @@
         <v>135</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="N29" t="s" s="2">
         <v>179</v>
@@ -6319,7 +6321,7 @@
         <v>138</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>81</v>
@@ -6328,7 +6330,7 @@
         <v>139</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -8041,10 +8043,10 @@
         <v>135</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>179</v>
@@ -8088,7 +8090,7 @@
         <v>138</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>81</v>
@@ -8097,7 +8099,7 @@
         <v>139</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -8192,7 +8194,7 @@
         <v>81</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Y45" t="s" s="2">
         <v>345</v>
@@ -8680,7 +8682,7 @@
         <v>139</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -8797,7 +8799,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -9673,10 +9675,10 @@
         <v>135</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>179</v>
@@ -9720,7 +9722,7 @@
         <v>138</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>81</v>
@@ -9729,7 +9731,7 @@
         <v>139</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -9824,7 +9826,7 @@
         <v>81</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Y59" t="s" s="2">
         <v>345</v>
@@ -10843,10 +10845,10 @@
         <v>135</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="N68" t="s" s="2">
         <v>179</v>
@@ -10890,7 +10892,7 @@
         <v>138</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>81</v>
@@ -10899,7 +10901,7 @@
         <v>139</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -10990,7 +10992,7 @@
         <v>81</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Y69" t="s" s="2">
         <v>452</v>
@@ -11228,7 +11230,7 @@
         <v>81</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Y71" s="2"/>
       <c r="Z71" t="s" s="2">
@@ -11577,7 +11579,7 @@
         <v>81</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Y74" t="s" s="2">
         <v>488</v>
@@ -12179,7 +12181,7 @@
         <v>138</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>81</v>
@@ -12188,7 +12190,7 @@
         <v>139</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -12307,7 +12309,7 @@
         <v>81</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -12426,7 +12428,7 @@
         <v>81</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -12543,7 +12545,7 @@
         <v>81</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -12638,7 +12640,7 @@
         <v>81</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Y83" t="s" s="2">
         <v>538</v>
@@ -12755,7 +12757,7 @@
         <v>81</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Y84" t="s" s="2">
         <v>547</v>
@@ -13356,7 +13358,7 @@
         <v>139</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
@@ -13473,7 +13475,7 @@
         <v>81</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -13933,7 +13935,7 @@
         <v>139</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
@@ -14050,7 +14052,7 @@
         <v>81</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
@@ -14508,7 +14510,7 @@
         <v>139</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
@@ -14625,7 +14627,7 @@
         <v>81</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
@@ -15200,7 +15202,7 @@
         <v>139</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>79</v>
@@ -15317,7 +15319,7 @@
         <v>81</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>79</v>
@@ -15607,7 +15609,7 @@
         <v>81</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L109" t="s" s="2">
         <v>642</v>
@@ -15642,7 +15644,7 @@
         <v>81</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Y109" s="2"/>
       <c r="Z109" t="s" s="2">
@@ -16249,7 +16251,7 @@
         <v>139</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>79</v>
@@ -16366,7 +16368,7 @@
         <v>81</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>79</v>
@@ -16543,7 +16545,7 @@
         <v>81</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L117" t="s" s="2">
         <v>685</v>
@@ -16578,7 +16580,7 @@
         <v>81</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Y117" t="s" s="2">
         <v>688</v>
@@ -16778,10 +16780,10 @@
         <v>135</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="N119" t="s" s="2">
         <v>179</v>
@@ -16825,7 +16827,7 @@
         <v>138</v>
       </c>
       <c r="AC119" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AD119" t="s" s="2">
         <v>81</v>
@@ -16834,7 +16836,7 @@
         <v>139</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>79</v>
@@ -16892,19 +16894,19 @@
         <v>90</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>81</v>
@@ -16953,7 +16955,7 @@
         <v>81</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>79</v>
@@ -16968,7 +16970,7 @@
         <v>101</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>81</v>
@@ -16977,7 +16979,7 @@
         <v>81</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>81</v>
@@ -17365,10 +17367,10 @@
         <v>135</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="N124" t="s" s="2">
         <v>179</v>
@@ -17412,7 +17414,7 @@
         <v>138</v>
       </c>
       <c r="AC124" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AD124" t="s" s="2">
         <v>81</v>
@@ -17421,7 +17423,7 @@
         <v>139</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>79</v>
@@ -17516,7 +17518,7 @@
         <v>81</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Y125" t="s" s="2">
         <v>345</v>
@@ -18004,7 +18006,7 @@
         <v>139</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>79</v>
@@ -18121,7 +18123,7 @@
         <v>81</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>79</v>
@@ -19029,7 +19031,7 @@
         <v>81</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Y138" t="s" s="2">
         <v>488</v>
@@ -19580,10 +19582,10 @@
         <v>135</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="N143" t="s" s="2">
         <v>179</v>
@@ -19636,7 +19638,7 @@
         <v>81</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>79</v>
@@ -19813,7 +19815,7 @@
         <v>81</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L145" t="s" s="2">
         <v>757</v>
@@ -19850,7 +19852,7 @@
         <v>81</v>
       </c>
       <c r="X145" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Y145" t="s" s="2">
         <v>761</v>
@@ -20286,10 +20288,10 @@
         <v>135</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="N149" t="s" s="2">
         <v>179</v>
@@ -20333,7 +20335,7 @@
         <v>138</v>
       </c>
       <c r="AC149" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AD149" t="s" s="2">
         <v>81</v>
@@ -20342,7 +20344,7 @@
         <v>139</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>79</v>
@@ -21224,10 +21226,10 @@
         <v>135</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="N157" t="s" s="2">
         <v>179</v>
@@ -21280,7 +21282,7 @@
         <v>81</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>79</v>
@@ -21607,7 +21609,7 @@
         <v>81</v>
       </c>
       <c r="X160" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Y160" t="s" s="2">
         <v>829</v>

--- a/refs/heads/master/StructureDefinition-PatientLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PatientLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5946" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5946" uniqueCount="835">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T21:09:26+00:00</t>
+    <t>2024-06-27T13:53:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -541,6 +541,9 @@
 </t>
   </si>
   <si>
+    <t>Pueblos Originarios Perteneciente</t>
+  </si>
+  <si>
     <t>Patient.extension:PueblosAfrodescendiente</t>
   </si>
   <si>
@@ -549,6 +552,9 @@
   <si>
     <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PueblosAfrodescendiente}
 </t>
+  </si>
+  <si>
+    <t>Pueblos Afrodescendiente</t>
   </si>
   <si>
     <t>Patient.extension:PueblosOriginarios</t>
@@ -1661,6 +1667,9 @@
   <si>
     <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/SituacionCalle}
 </t>
+  </si>
+  <si>
+    <t>Situacion Calle</t>
   </si>
   <si>
     <t>Patient.address.use</t>
@@ -4636,10 +4645,10 @@
         <v>166</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -4722,13 +4731,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>133</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>81</v>
@@ -4750,13 +4759,13 @@
         <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -4839,13 +4848,13 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>133</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>81</v>
@@ -4867,13 +4876,13 @@
         <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4956,14 +4965,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4985,16 +4994,16 @@
         <v>135</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>81</v>
@@ -5043,7 +5052,7 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -5075,10 +5084,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -5101,19 +5110,19 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>81</v>
@@ -5162,7 +5171,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -5177,16 +5186,16 @@
         <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>81</v>
@@ -5194,10 +5203,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -5220,13 +5229,13 @@
         <v>81</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -5277,7 +5286,7 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -5292,7 +5301,7 @@
         <v>81</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>81</v>
@@ -5309,14 +5318,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -5338,13 +5347,13 @@
         <v>135</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -5385,7 +5394,7 @@
         <v>138</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>81</v>
@@ -5394,7 +5403,7 @@
         <v>139</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -5409,7 +5418,7 @@
         <v>141</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>81</v>
@@ -5426,10 +5435,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5455,16 +5464,16 @@
         <v>109</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>81</v>
@@ -5489,13 +5498,13 @@
         <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>81</v>
@@ -5513,7 +5522,7 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -5528,7 +5537,7 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>81</v>
@@ -5545,10 +5554,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5571,19 +5580,19 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>81</v>
@@ -5608,13 +5617,13 @@
         <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>81</v>
@@ -5632,7 +5641,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -5647,7 +5656,7 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>81</v>
@@ -5656,7 +5665,7 @@
         <v>81</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>81</v>
@@ -5664,10 +5673,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5690,13 +5699,13 @@
         <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5747,7 +5756,7 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -5762,7 +5771,7 @@
         <v>81</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>81</v>
@@ -5779,10 +5788,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5853,7 +5862,7 @@
         <v>138</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>81</v>
@@ -5862,7 +5871,7 @@
         <v>139</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -5894,13 +5903,13 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>81</v>
@@ -5979,7 +5988,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -6011,10 +6020,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -6037,19 +6046,19 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>81</v>
@@ -6098,7 +6107,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -6113,7 +6122,7 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>81</v>
@@ -6122,7 +6131,7 @@
         <v>81</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>81</v>
@@ -6130,10 +6139,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -6156,13 +6165,13 @@
         <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -6213,7 +6222,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -6228,7 +6237,7 @@
         <v>81</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>81</v>
@@ -6245,14 +6254,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -6274,13 +6283,13 @@
         <v>135</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -6321,7 +6330,7 @@
         <v>138</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>81</v>
@@ -6330,7 +6339,7 @@
         <v>139</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -6345,7 +6354,7 @@
         <v>141</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>81</v>
@@ -6362,10 +6371,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6391,16 +6400,16 @@
         <v>103</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>81</v>
@@ -6449,7 +6458,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -6464,7 +6473,7 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>81</v>
@@ -6473,7 +6482,7 @@
         <v>81</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>81</v>
@@ -6481,10 +6490,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6507,16 +6516,16 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6566,7 +6575,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -6581,7 +6590,7 @@
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>81</v>
@@ -6590,7 +6599,7 @@
         <v>81</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>81</v>
@@ -6598,10 +6607,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6627,14 +6636,14 @@
         <v>109</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -6683,7 +6692,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -6698,7 +6707,7 @@
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>81</v>
@@ -6707,7 +6716,7 @@
         <v>81</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>81</v>
@@ -6715,10 +6724,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6741,17 +6750,17 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -6800,7 +6809,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -6815,7 +6824,7 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>81</v>
@@ -6824,7 +6833,7 @@
         <v>81</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>81</v>
@@ -6832,10 +6841,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6858,19 +6867,19 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -6919,7 +6928,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -6934,7 +6943,7 @@
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>81</v>
@@ -6943,7 +6952,7 @@
         <v>81</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>81</v>
@@ -6951,10 +6960,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6977,19 +6986,19 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -7038,7 +7047,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -7053,7 +7062,7 @@
         <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>81</v>
@@ -7062,7 +7071,7 @@
         <v>81</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>81</v>
@@ -7070,10 +7079,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -7099,16 +7108,16 @@
         <v>103</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -7121,7 +7130,7 @@
         <v>81</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>81</v>
@@ -7157,7 +7166,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -7172,7 +7181,7 @@
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>81</v>
@@ -7181,7 +7190,7 @@
         <v>81</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>81</v>
@@ -7189,10 +7198,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -7215,16 +7224,16 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -7238,7 +7247,7 @@
         <v>81</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>81</v>
@@ -7274,7 +7283,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -7289,7 +7298,7 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>81</v>
@@ -7298,7 +7307,7 @@
         <v>81</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>81</v>
@@ -7306,10 +7315,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7332,13 +7341,13 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -7389,7 +7398,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -7404,7 +7413,7 @@
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>81</v>
@@ -7413,7 +7422,7 @@
         <v>81</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>81</v>
@@ -7421,10 +7430,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7447,16 +7456,16 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -7506,7 +7515,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -7521,7 +7530,7 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>81</v>
@@ -7530,7 +7539,7 @@
         <v>81</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>81</v>
@@ -7538,10 +7547,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7564,70 +7573,70 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M40" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="P40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q40" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF40" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="P40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q40" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="R40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -7642,13 +7651,13 @@
         <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -7659,10 +7668,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7685,19 +7694,19 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -7734,10 +7743,10 @@
         <v>81</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>81</v>
@@ -7746,7 +7755,7 @@
         <v>139</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -7761,16 +7770,16 @@
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>81</v>
@@ -7778,13 +7787,13 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>81</v>
@@ -7806,19 +7815,19 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -7867,7 +7876,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7882,16 +7891,16 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>81</v>
@@ -7899,10 +7908,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7925,13 +7934,13 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7982,7 +7991,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7997,7 +8006,7 @@
         <v>81</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>81</v>
@@ -8014,14 +8023,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -8043,13 +8052,13 @@
         <v>135</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -8090,7 +8099,7 @@
         <v>138</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>81</v>
@@ -8099,7 +8108,7 @@
         <v>139</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -8114,7 +8123,7 @@
         <v>141</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>81</v>
@@ -8131,10 +8140,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -8160,16 +8169,16 @@
         <v>109</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -8179,7 +8188,7 @@
         <v>81</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>81</v>
@@ -8194,13 +8203,13 @@
         <v>81</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>81</v>
@@ -8218,7 +8227,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -8233,7 +8242,7 @@
         <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>81</v>
@@ -8242,7 +8251,7 @@
         <v>81</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>81</v>
@@ -8250,10 +8259,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8276,19 +8285,19 @@
         <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
@@ -8337,7 +8346,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -8352,7 +8361,7 @@
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>81</v>
@@ -8361,7 +8370,7 @@
         <v>81</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>81</v>
@@ -8369,14 +8378,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -8395,16 +8404,16 @@
         <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8454,7 +8463,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -8469,7 +8478,7 @@
         <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>81</v>
@@ -8478,7 +8487,7 @@
         <v>81</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>81</v>
@@ -8486,10 +8495,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8512,13 +8521,13 @@
         <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -8569,7 +8578,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -8601,10 +8610,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8630,10 +8639,10 @@
         <v>135</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8682,7 +8691,7 @@
         <v>139</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -8714,13 +8723,13 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>81</v>
@@ -8742,13 +8751,13 @@
         <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8799,7 +8808,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -8831,10 +8840,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8857,13 +8866,13 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8887,7 +8896,7 @@
         <v>81</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="X51" t="s" s="2">
         <v>81</v>
@@ -8914,7 +8923,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8946,14 +8955,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8972,16 +8981,16 @@
         <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -9031,7 +9040,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -9046,7 +9055,7 @@
         <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>81</v>
@@ -9055,7 +9064,7 @@
         <v>81</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>81</v>
@@ -9063,10 +9072,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -9089,13 +9098,13 @@
         <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -9146,7 +9155,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -9161,7 +9170,7 @@
         <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>81</v>
@@ -9170,7 +9179,7 @@
         <v>81</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>81</v>
@@ -9178,10 +9187,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9204,13 +9213,13 @@
         <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -9261,7 +9270,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -9276,7 +9285,7 @@
         <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>81</v>
@@ -9285,7 +9294,7 @@
         <v>81</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>81</v>
@@ -9293,10 +9302,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9319,17 +9328,17 @@
         <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -9378,7 +9387,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -9393,7 +9402,7 @@
         <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>81</v>
@@ -9402,7 +9411,7 @@
         <v>81</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>81</v>
@@ -9410,13 +9419,13 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>81</v>
@@ -9438,19 +9447,19 @@
         <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>81</v>
@@ -9499,7 +9508,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -9514,16 +9523,16 @@
         <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>81</v>
@@ -9531,10 +9540,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9557,13 +9566,13 @@
         <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9614,7 +9623,7 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -9629,7 +9638,7 @@
         <v>81</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>81</v>
@@ -9646,14 +9655,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9675,13 +9684,13 @@
         <v>135</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9722,7 +9731,7 @@
         <v>138</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>81</v>
@@ -9731,7 +9740,7 @@
         <v>139</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -9746,7 +9755,7 @@
         <v>141</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>81</v>
@@ -9763,10 +9772,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9792,16 +9801,16 @@
         <v>109</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>81</v>
@@ -9811,7 +9820,7 @@
         <v>81</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>81</v>
@@ -9826,13 +9835,13 @@
         <v>81</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>81</v>
@@ -9850,7 +9859,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9865,7 +9874,7 @@
         <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>81</v>
@@ -9874,7 +9883,7 @@
         <v>81</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>81</v>
@@ -9882,10 +9891,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9908,19 +9917,19 @@
         <v>90</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>81</v>
@@ -9969,7 +9978,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9984,7 +9993,7 @@
         <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>81</v>
@@ -9993,7 +10002,7 @@
         <v>81</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>81</v>
@@ -10001,14 +10010,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -10027,16 +10036,16 @@
         <v>90</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -10086,7 +10095,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -10101,7 +10110,7 @@
         <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>81</v>
@@ -10110,7 +10119,7 @@
         <v>81</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>81</v>
@@ -10118,14 +10127,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -10144,16 +10153,16 @@
         <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -10203,7 +10212,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -10218,7 +10227,7 @@
         <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>81</v>
@@ -10227,7 +10236,7 @@
         <v>81</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>81</v>
@@ -10235,10 +10244,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10261,13 +10270,13 @@
         <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -10318,7 +10327,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -10333,7 +10342,7 @@
         <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>81</v>
@@ -10342,7 +10351,7 @@
         <v>81</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>81</v>
@@ -10350,10 +10359,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10376,13 +10385,13 @@
         <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -10433,7 +10442,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -10448,7 +10457,7 @@
         <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>81</v>
@@ -10457,7 +10466,7 @@
         <v>81</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>81</v>
@@ -10465,10 +10474,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10491,17 +10500,17 @@
         <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>81</v>
@@ -10550,7 +10559,7 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -10565,7 +10574,7 @@
         <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>81</v>
@@ -10574,7 +10583,7 @@
         <v>81</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>81</v>
@@ -10582,10 +10591,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10608,19 +10617,19 @@
         <v>90</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>81</v>
@@ -10669,7 +10678,7 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -10684,16 +10693,16 @@
         <v>101</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>81</v>
@@ -10701,10 +10710,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10727,13 +10736,13 @@
         <v>81</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10784,7 +10793,7 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -10799,7 +10808,7 @@
         <v>81</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>81</v>
@@ -10816,14 +10825,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10845,13 +10854,13 @@
         <v>135</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10892,7 +10901,7 @@
         <v>138</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>81</v>
@@ -10901,7 +10910,7 @@
         <v>139</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -10916,7 +10925,7 @@
         <v>141</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>81</v>
@@ -10933,10 +10942,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10962,10 +10971,10 @@
         <v>109</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10992,13 +11001,13 @@
         <v>81</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>81</v>
@@ -11016,7 +11025,7 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -11025,13 +11034,13 @@
         <v>89</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>81</v>
@@ -11040,7 +11049,7 @@
         <v>81</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>81</v>
@@ -11048,10 +11057,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11074,19 +11083,19 @@
         <v>90</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>81</v>
@@ -11135,7 +11144,7 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -11150,7 +11159,7 @@
         <v>101</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>81</v>
@@ -11159,7 +11168,7 @@
         <v>81</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>81</v>
@@ -11167,10 +11176,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11196,16 +11205,16 @@
         <v>109</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>81</v>
@@ -11230,11 +11239,11 @@
         <v>81</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y71" s="2"/>
       <c r="Z71" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>81</v>
@@ -11252,7 +11261,7 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -11267,7 +11276,7 @@
         <v>101</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>81</v>
@@ -11276,7 +11285,7 @@
         <v>81</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>81</v>
@@ -11284,10 +11293,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11310,16 +11319,16 @@
         <v>90</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11369,7 +11378,7 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -11384,7 +11393,7 @@
         <v>101</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>81</v>
@@ -11393,7 +11402,7 @@
         <v>81</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>81</v>
@@ -11401,10 +11410,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11427,13 +11436,13 @@
         <v>90</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -11484,7 +11493,7 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -11499,7 +11508,7 @@
         <v>101</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>81</v>
@@ -11516,10 +11525,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11545,16 +11554,16 @@
         <v>109</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>81</v>
@@ -11579,13 +11588,13 @@
         <v>81</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>81</v>
@@ -11603,7 +11612,7 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -11618,16 +11627,16 @@
         <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>81</v>
@@ -11635,10 +11644,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11661,19 +11670,19 @@
         <v>90</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>81</v>
@@ -11722,7 +11731,7 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -11737,27 +11746,27 @@
         <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11780,19 +11789,19 @@
         <v>90</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>81</v>
@@ -11841,7 +11850,7 @@
         <v>81</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -11856,16 +11865,16 @@
         <v>101</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>81</v>
@@ -11873,10 +11882,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11899,19 +11908,19 @@
         <v>81</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>81</v>
@@ -11960,7 +11969,7 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11975,7 +11984,7 @@
         <v>101</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>81</v>
@@ -11984,7 +11993,7 @@
         <v>81</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>81</v>
@@ -11992,10 +12001,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12018,13 +12027,13 @@
         <v>81</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -12075,7 +12084,7 @@
         <v>81</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -12090,7 +12099,7 @@
         <v>81</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>81</v>
@@ -12107,10 +12116,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12139,7 +12148,7 @@
         <v>136</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -12181,7 +12190,7 @@
         <v>138</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>81</v>
@@ -12190,7 +12199,7 @@
         <v>139</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -12222,13 +12231,13 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B80" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="B80" t="s" s="2">
-        <v>518</v>
-      </c>
       <c r="C80" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>81</v>
@@ -12250,16 +12259,16 @@
         <v>81</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -12309,7 +12318,7 @@
         <v>81</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -12341,13 +12350,13 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>81</v>
@@ -12369,16 +12378,16 @@
         <v>81</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -12428,7 +12437,7 @@
         <v>81</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -12460,13 +12469,13 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>81</v>
@@ -12488,13 +12497,13 @@
         <v>81</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -12545,7 +12554,7 @@
         <v>81</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -12577,10 +12586,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12606,16 +12615,16 @@
         <v>109</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>81</v>
@@ -12628,7 +12637,7 @@
         <v>81</v>
       </c>
       <c r="T83" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="U83" t="s" s="2">
         <v>81</v>
@@ -12640,13 +12649,13 @@
         <v>81</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>81</v>
@@ -12664,7 +12673,7 @@
         <v>81</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -12679,7 +12688,7 @@
         <v>101</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>81</v>
@@ -12688,7 +12697,7 @@
         <v>81</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>81</v>
@@ -12696,10 +12705,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12725,13 +12734,13 @@
         <v>109</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12745,7 +12754,7 @@
         <v>81</v>
       </c>
       <c r="T84" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="U84" t="s" s="2">
         <v>81</v>
@@ -12757,13 +12766,13 @@
         <v>81</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>81</v>
@@ -12781,7 +12790,7 @@
         <v>81</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -12796,7 +12805,7 @@
         <v>101</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>81</v>
@@ -12805,7 +12814,7 @@
         <v>81</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>81</v>
@@ -12813,10 +12822,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12839,19 +12848,19 @@
         <v>90</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>81</v>
@@ -12864,7 +12873,7 @@
         <v>81</v>
       </c>
       <c r="T85" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="U85" t="s" s="2">
         <v>81</v>
@@ -12900,7 +12909,7 @@
         <v>81</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -12915,7 +12924,7 @@
         <v>101</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>81</v>
@@ -12924,7 +12933,7 @@
         <v>81</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>81</v>
@@ -12932,10 +12941,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12958,13 +12967,13 @@
         <v>90</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12979,7 +12988,7 @@
         <v>81</v>
       </c>
       <c r="T86" t="s" s="2">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="U86" t="s" s="2">
         <v>81</v>
@@ -13015,7 +13024,7 @@
         <v>81</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
@@ -13030,7 +13039,7 @@
         <v>101</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>81</v>
@@ -13039,7 +13048,7 @@
         <v>81</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>81</v>
@@ -13047,14 +13056,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -13073,13 +13082,13 @@
         <v>90</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -13094,7 +13103,7 @@
         <v>81</v>
       </c>
       <c r="T87" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="U87" t="s" s="2">
         <v>81</v>
@@ -13130,7 +13139,7 @@
         <v>81</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -13145,7 +13154,7 @@
         <v>101</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>81</v>
@@ -13154,7 +13163,7 @@
         <v>81</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>81</v>
@@ -13162,10 +13171,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13188,13 +13197,13 @@
         <v>81</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -13245,7 +13254,7 @@
         <v>81</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
@@ -13277,10 +13286,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13306,10 +13315,10 @@
         <v>135</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -13358,7 +13367,7 @@
         <v>139</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
@@ -13390,13 +13399,13 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>81</v>
@@ -13418,13 +13427,13 @@
         <v>81</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -13475,7 +13484,7 @@
         <v>81</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -13507,10 +13516,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13533,13 +13542,13 @@
         <v>81</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -13563,7 +13572,7 @@
         <v>81</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="X91" t="s" s="2">
         <v>81</v>
@@ -13590,7 +13599,7 @@
         <v>81</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -13622,14 +13631,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13648,16 +13657,16 @@
         <v>90</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13671,7 +13680,7 @@
         <v>81</v>
       </c>
       <c r="T92" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="U92" t="s" s="2">
         <v>81</v>
@@ -13707,7 +13716,7 @@
         <v>81</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
@@ -13722,7 +13731,7 @@
         <v>101</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>81</v>
@@ -13731,7 +13740,7 @@
         <v>81</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>81</v>
@@ -13739,10 +13748,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13765,13 +13774,13 @@
         <v>81</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13822,7 +13831,7 @@
         <v>81</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
@@ -13854,10 +13863,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13883,10 +13892,10 @@
         <v>135</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13935,7 +13944,7 @@
         <v>139</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
@@ -13967,13 +13976,13 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>81</v>
@@ -13995,13 +14004,13 @@
         <v>81</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -14052,7 +14061,7 @@
         <v>81</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
@@ -14084,10 +14093,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14110,13 +14119,13 @@
         <v>81</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -14140,7 +14149,7 @@
         <v>81</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="X96" t="s" s="2">
         <v>81</v>
@@ -14167,7 +14176,7 @@
         <v>81</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
@@ -14199,14 +14208,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -14225,13 +14234,13 @@
         <v>90</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -14282,7 +14291,7 @@
         <v>81</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
@@ -14297,7 +14306,7 @@
         <v>101</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>81</v>
@@ -14306,7 +14315,7 @@
         <v>81</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>81</v>
@@ -14314,10 +14323,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14340,13 +14349,13 @@
         <v>81</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -14397,7 +14406,7 @@
         <v>81</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
@@ -14429,10 +14438,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14458,10 +14467,10 @@
         <v>135</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -14510,7 +14519,7 @@
         <v>139</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
@@ -14542,13 +14551,13 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>81</v>
@@ -14570,13 +14579,13 @@
         <v>81</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -14627,7 +14636,7 @@
         <v>81</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
@@ -14659,10 +14668,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14685,13 +14694,13 @@
         <v>81</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14715,7 +14724,7 @@
         <v>81</v>
       </c>
       <c r="W101" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="X101" t="s" s="2">
         <v>81</v>
@@ -14742,7 +14751,7 @@
         <v>81</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
@@ -14774,14 +14783,14 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14800,13 +14809,13 @@
         <v>90</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14821,7 +14830,7 @@
         <v>81</v>
       </c>
       <c r="T102" t="s" s="2">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="U102" t="s" s="2">
         <v>81</v>
@@ -14857,7 +14866,7 @@
         <v>81</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
@@ -14872,7 +14881,7 @@
         <v>101</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>81</v>
@@ -14881,7 +14890,7 @@
         <v>81</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>81</v>
@@ -14889,10 +14898,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14915,16 +14924,16 @@
         <v>90</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14974,7 +14983,7 @@
         <v>81</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>79</v>
@@ -14989,7 +14998,7 @@
         <v>101</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>81</v>
@@ -14998,7 +15007,7 @@
         <v>81</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>81</v>
@@ -15006,10 +15015,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15032,13 +15041,13 @@
         <v>81</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -15089,7 +15098,7 @@
         <v>81</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>79</v>
@@ -15121,10 +15130,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15150,10 +15159,10 @@
         <v>135</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -15202,7 +15211,7 @@
         <v>139</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>79</v>
@@ -15234,13 +15243,13 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="D106" t="s" s="2">
         <v>81</v>
@@ -15319,7 +15328,7 @@
         <v>81</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>79</v>
@@ -15351,10 +15360,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15377,13 +15386,13 @@
         <v>81</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15407,7 +15416,7 @@
         <v>81</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="X107" t="s" s="2">
         <v>81</v>
@@ -15434,7 +15443,7 @@
         <v>81</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>79</v>
@@ -15466,10 +15475,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15492,17 +15501,17 @@
         <v>90</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>81</v>
@@ -15515,7 +15524,7 @@
         <v>81</v>
       </c>
       <c r="T108" t="s" s="2">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="U108" t="s" s="2">
         <v>81</v>
@@ -15551,7 +15560,7 @@
         <v>81</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>79</v>
@@ -15566,7 +15575,7 @@
         <v>101</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>81</v>
@@ -15575,7 +15584,7 @@
         <v>81</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>81</v>
@@ -15583,10 +15592,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15609,17 +15618,17 @@
         <v>81</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>81</v>
@@ -15644,11 +15653,11 @@
         <v>81</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y109" s="2"/>
       <c r="Z109" t="s" s="2">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>81</v>
@@ -15666,7 +15675,7 @@
         <v>81</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>79</v>
@@ -15681,16 +15690,16 @@
         <v>101</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>81</v>
@@ -15698,10 +15707,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15724,19 +15733,19 @@
         <v>81</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>81</v>
@@ -15785,7 +15794,7 @@
         <v>81</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>79</v>
@@ -15800,16 +15809,16 @@
         <v>101</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>81</v>
@@ -15817,10 +15826,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15843,19 +15852,19 @@
         <v>81</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>81</v>
@@ -15904,7 +15913,7 @@
         <v>81</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>79</v>
@@ -15919,16 +15928,16 @@
         <v>101</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>81</v>
@@ -15936,10 +15945,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15962,19 +15971,19 @@
         <v>81</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>81</v>
@@ -16023,7 +16032,7 @@
         <v>81</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>79</v>
@@ -16035,13 +16044,13 @@
         <v>81</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>81</v>
@@ -16055,10 +16064,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16081,13 +16090,13 @@
         <v>81</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -16138,7 +16147,7 @@
         <v>81</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>79</v>
@@ -16153,7 +16162,7 @@
         <v>81</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>81</v>
@@ -16170,10 +16179,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16251,7 +16260,7 @@
         <v>139</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>79</v>
@@ -16283,13 +16292,13 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>81</v>
@@ -16311,13 +16320,13 @@
         <v>81</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -16368,7 +16377,7 @@
         <v>81</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>79</v>
@@ -16400,14 +16409,14 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
@@ -16429,16 +16438,16 @@
         <v>135</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>81</v>
@@ -16487,7 +16496,7 @@
         <v>81</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>79</v>
@@ -16519,10 +16528,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16545,17 +16554,17 @@
         <v>81</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>81</v>
@@ -16580,13 +16589,13 @@
         <v>81</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>81</v>
@@ -16604,7 +16613,7 @@
         <v>81</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>79</v>
@@ -16619,16 +16628,16 @@
         <v>101</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>81</v>
@@ -16636,10 +16645,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16662,13 +16671,13 @@
         <v>81</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -16719,7 +16728,7 @@
         <v>81</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>79</v>
@@ -16734,7 +16743,7 @@
         <v>81</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>81</v>
@@ -16751,14 +16760,14 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
@@ -16780,13 +16789,13 @@
         <v>135</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
@@ -16827,7 +16836,7 @@
         <v>138</v>
       </c>
       <c r="AC119" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AD119" t="s" s="2">
         <v>81</v>
@@ -16836,7 +16845,7 @@
         <v>139</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>79</v>
@@ -16851,7 +16860,7 @@
         <v>141</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>81</v>
@@ -16868,10 +16877,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16894,19 +16903,19 @@
         <v>90</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>81</v>
@@ -16955,7 +16964,7 @@
         <v>81</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>79</v>
@@ -16970,7 +16979,7 @@
         <v>101</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>81</v>
@@ -16979,7 +16988,7 @@
         <v>81</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>81</v>
@@ -16987,10 +16996,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17013,19 +17022,19 @@
         <v>90</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>81</v>
@@ -17074,7 +17083,7 @@
         <v>81</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>79</v>
@@ -17089,7 +17098,7 @@
         <v>101</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>81</v>
@@ -17098,7 +17107,7 @@
         <v>81</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>81</v>
@@ -17106,10 +17115,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17132,17 +17141,17 @@
         <v>81</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>81</v>
@@ -17191,7 +17200,7 @@
         <v>81</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>79</v>
@@ -17206,16 +17215,16 @@
         <v>101</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>81</v>
@@ -17223,10 +17232,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17249,13 +17258,13 @@
         <v>81</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -17306,7 +17315,7 @@
         <v>81</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>79</v>
@@ -17321,7 +17330,7 @@
         <v>81</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>81</v>
@@ -17338,14 +17347,14 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
@@ -17367,13 +17376,13 @@
         <v>135</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
@@ -17414,7 +17423,7 @@
         <v>138</v>
       </c>
       <c r="AC124" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AD124" t="s" s="2">
         <v>81</v>
@@ -17423,7 +17432,7 @@
         <v>139</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>79</v>
@@ -17438,7 +17447,7 @@
         <v>141</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>81</v>
@@ -17455,10 +17464,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17484,16 +17493,16 @@
         <v>109</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="O125" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>81</v>
@@ -17503,7 +17512,7 @@
         <v>81</v>
       </c>
       <c r="S125" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="T125" t="s" s="2">
         <v>81</v>
@@ -17518,13 +17527,13 @@
         <v>81</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Z125" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AA125" t="s" s="2">
         <v>81</v>
@@ -17542,7 +17551,7 @@
         <v>81</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>79</v>
@@ -17557,7 +17566,7 @@
         <v>101</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>81</v>
@@ -17566,7 +17575,7 @@
         <v>81</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>81</v>
@@ -17574,10 +17583,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17600,19 +17609,19 @@
         <v>90</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>81</v>
@@ -17661,7 +17670,7 @@
         <v>81</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>79</v>
@@ -17676,7 +17685,7 @@
         <v>101</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>81</v>
@@ -17685,7 +17694,7 @@
         <v>81</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>81</v>
@@ -17693,14 +17702,14 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
@@ -17719,16 +17728,16 @@
         <v>90</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
@@ -17778,7 +17787,7 @@
         <v>81</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>79</v>
@@ -17793,7 +17802,7 @@
         <v>101</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>81</v>
@@ -17802,7 +17811,7 @@
         <v>81</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>81</v>
@@ -17810,10 +17819,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17836,13 +17845,13 @@
         <v>81</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" s="2"/>
@@ -17893,7 +17902,7 @@
         <v>81</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>79</v>
@@ -17925,10 +17934,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17954,10 +17963,10 @@
         <v>135</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -18006,7 +18015,7 @@
         <v>139</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>79</v>
@@ -18038,13 +18047,13 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D130" t="s" s="2">
         <v>81</v>
@@ -18066,13 +18075,13 @@
         <v>81</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -18123,7 +18132,7 @@
         <v>81</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>79</v>
@@ -18155,10 +18164,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18181,13 +18190,13 @@
         <v>81</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -18211,7 +18220,7 @@
         <v>81</v>
       </c>
       <c r="W131" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="X131" t="s" s="2">
         <v>81</v>
@@ -18238,7 +18247,7 @@
         <v>81</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>79</v>
@@ -18270,14 +18279,14 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" t="s" s="2">
@@ -18296,16 +18305,16 @@
         <v>90</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
@@ -18355,7 +18364,7 @@
         <v>81</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>79</v>
@@ -18370,7 +18379,7 @@
         <v>101</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>81</v>
@@ -18379,7 +18388,7 @@
         <v>81</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>81</v>
@@ -18387,10 +18396,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18413,13 +18422,13 @@
         <v>90</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
@@ -18470,7 +18479,7 @@
         <v>81</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>79</v>
@@ -18485,7 +18494,7 @@
         <v>101</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>81</v>
@@ -18494,7 +18503,7 @@
         <v>81</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>81</v>
@@ -18502,10 +18511,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18528,13 +18537,13 @@
         <v>90</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" s="2"/>
@@ -18585,7 +18594,7 @@
         <v>81</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>79</v>
@@ -18600,7 +18609,7 @@
         <v>101</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>81</v>
@@ -18609,7 +18618,7 @@
         <v>81</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>81</v>
@@ -18617,10 +18626,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18643,17 +18652,17 @@
         <v>90</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>81</v>
@@ -18702,7 +18711,7 @@
         <v>81</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>79</v>
@@ -18717,7 +18726,7 @@
         <v>101</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>81</v>
@@ -18726,7 +18735,7 @@
         <v>81</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>81</v>
@@ -18734,10 +18743,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18760,19 +18769,19 @@
         <v>81</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="O136" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>81</v>
@@ -18821,7 +18830,7 @@
         <v>81</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>79</v>
@@ -18836,16 +18845,16 @@
         <v>101</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="AO136" t="s" s="2">
         <v>81</v>
@@ -18853,10 +18862,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18879,17 +18888,17 @@
         <v>81</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>81</v>
@@ -18938,7 +18947,7 @@
         <v>81</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>79</v>
@@ -18953,16 +18962,16 @@
         <v>101</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN137" t="s" s="2">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="AO137" t="s" s="2">
         <v>81</v>
@@ -18970,10 +18979,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18999,14 +19008,14 @@
         <v>109</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>81</v>
@@ -19031,13 +19040,13 @@
         <v>81</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>81</v>
@@ -19055,7 +19064,7 @@
         <v>81</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>79</v>
@@ -19070,16 +19079,16 @@
         <v>101</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="AO138" t="s" s="2">
         <v>81</v>
@@ -19087,10 +19096,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19113,17 +19122,17 @@
         <v>81</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>81</v>
@@ -19172,7 +19181,7 @@
         <v>81</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>79</v>
@@ -19181,22 +19190,22 @@
         <v>89</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="AO139" t="s" s="2">
         <v>81</v>
@@ -19204,10 +19213,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19230,13 +19239,13 @@
         <v>81</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -19287,7 +19296,7 @@
         <v>81</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>79</v>
@@ -19302,10 +19311,10 @@
         <v>101</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>81</v>
@@ -19319,10 +19328,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19345,19 +19354,19 @@
         <v>81</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>81</v>
@@ -19406,7 +19415,7 @@
         <v>81</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>79</v>
@@ -19421,10 +19430,10 @@
         <v>101</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>81</v>
@@ -19438,10 +19447,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19464,13 +19473,13 @@
         <v>81</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -19521,7 +19530,7 @@
         <v>81</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>79</v>
@@ -19536,7 +19545,7 @@
         <v>81</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AL142" t="s" s="2">
         <v>81</v>
@@ -19553,14 +19562,14 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" t="s" s="2">
@@ -19582,13 +19591,13 @@
         <v>135</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O143" s="2"/>
       <c r="P143" t="s" s="2">
@@ -19638,7 +19647,7 @@
         <v>81</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>79</v>
@@ -19653,7 +19662,7 @@
         <v>141</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AL143" t="s" s="2">
         <v>81</v>
@@ -19670,14 +19679,14 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" t="s" s="2">
@@ -19699,16 +19708,16 @@
         <v>135</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O144" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>81</v>
@@ -19757,7 +19766,7 @@
         <v>81</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>79</v>
@@ -19789,10 +19798,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19815,19 +19824,19 @@
         <v>81</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="O145" t="s" s="2">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>81</v>
@@ -19852,13 +19861,13 @@
         <v>81</v>
       </c>
       <c r="X145" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="Z145" t="s" s="2">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="AA145" t="s" s="2">
         <v>81</v>
@@ -19876,7 +19885,7 @@
         <v>81</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>89</v>
@@ -19891,16 +19900,16 @@
         <v>101</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN145" t="s" s="2">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="AO145" t="s" s="2">
         <v>81</v>
@@ -19908,10 +19917,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19934,19 +19943,19 @@
         <v>81</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="O146" t="s" s="2">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>81</v>
@@ -19995,7 +20004,7 @@
         <v>81</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>79</v>
@@ -20010,16 +20019,16 @@
         <v>101</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN146" t="s" s="2">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="AO146" t="s" s="2">
         <v>81</v>
@@ -20027,14 +20036,14 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" t="s" s="2">
@@ -20053,16 +20062,16 @@
         <v>81</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
@@ -20112,7 +20121,7 @@
         <v>81</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>79</v>
@@ -20127,16 +20136,16 @@
         <v>101</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AM147" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN147" t="s" s="2">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="AO147" t="s" s="2">
         <v>81</v>
@@ -20144,10 +20153,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20170,13 +20179,13 @@
         <v>81</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
@@ -20227,7 +20236,7 @@
         <v>81</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>79</v>
@@ -20242,7 +20251,7 @@
         <v>81</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>81</v>
@@ -20259,14 +20268,14 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" t="s" s="2">
@@ -20288,13 +20297,13 @@
         <v>135</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O149" s="2"/>
       <c r="P149" t="s" s="2">
@@ -20335,7 +20344,7 @@
         <v>138</v>
       </c>
       <c r="AC149" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AD149" t="s" s="2">
         <v>81</v>
@@ -20344,7 +20353,7 @@
         <v>139</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>79</v>
@@ -20359,7 +20368,7 @@
         <v>141</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AL149" t="s" s="2">
         <v>81</v>
@@ -20376,10 +20385,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20402,16 +20411,16 @@
         <v>90</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" t="s" s="2">
@@ -20461,7 +20470,7 @@
         <v>81</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>79</v>
@@ -20470,7 +20479,7 @@
         <v>89</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>101</v>
@@ -20493,10 +20502,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20522,13 +20531,13 @@
         <v>103</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="O151" s="2"/>
       <c r="P151" t="s" s="2">
@@ -20554,13 +20563,13 @@
         <v>81</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="Z151" t="s" s="2">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="AA151" t="s" s="2">
         <v>81</v>
@@ -20578,7 +20587,7 @@
         <v>81</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>79</v>
@@ -20610,10 +20619,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20636,16 +20645,16 @@
         <v>90</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
@@ -20695,7 +20704,7 @@
         <v>81</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>79</v>
@@ -20710,7 +20719,7 @@
         <v>101</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="AL152" t="s" s="2">
         <v>81</v>
@@ -20727,10 +20736,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -20753,16 +20762,16 @@
         <v>90</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
@@ -20812,7 +20821,7 @@
         <v>81</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>79</v>
@@ -20844,10 +20853,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20870,19 +20879,19 @@
         <v>90</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="O154" t="s" s="2">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>81</v>
@@ -20931,7 +20940,7 @@
         <v>81</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>79</v>
@@ -20946,10 +20955,10 @@
         <v>101</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>81</v>
@@ -20963,10 +20972,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -20989,19 +20998,19 @@
         <v>90</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="O155" t="s" s="2">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>81</v>
@@ -21050,7 +21059,7 @@
         <v>81</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>79</v>
@@ -21065,10 +21074,10 @@
         <v>101</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>81</v>
@@ -21082,10 +21091,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21108,13 +21117,13 @@
         <v>81</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
@@ -21165,7 +21174,7 @@
         <v>81</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>79</v>
@@ -21180,7 +21189,7 @@
         <v>81</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AL156" t="s" s="2">
         <v>81</v>
@@ -21197,14 +21206,14 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" t="s" s="2">
@@ -21226,13 +21235,13 @@
         <v>135</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O157" s="2"/>
       <c r="P157" t="s" s="2">
@@ -21282,7 +21291,7 @@
         <v>81</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>79</v>
@@ -21297,7 +21306,7 @@
         <v>141</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AL157" t="s" s="2">
         <v>81</v>
@@ -21314,14 +21323,14 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
@@ -21343,16 +21352,16 @@
         <v>135</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O158" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>81</v>
@@ -21401,7 +21410,7 @@
         <v>81</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>79</v>
@@ -21433,10 +21442,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21459,16 +21468,16 @@
         <v>90</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="O159" s="2"/>
       <c r="P159" t="s" s="2">
@@ -21518,7 +21527,7 @@
         <v>81</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>89</v>
@@ -21533,16 +21542,16 @@
         <v>101</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN159" t="s" s="2">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="AO159" t="s" s="2">
         <v>81</v>
@@ -21550,10 +21559,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21579,10 +21588,10 @@
         <v>109</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -21609,31 +21618,31 @@
         <v>81</v>
       </c>
       <c r="X160" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="Z160" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="AA160" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB160" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC160" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD160" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE160" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF160" t="s" s="2">
         <v>830</v>
-      </c>
-      <c r="AA160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF160" t="s" s="2">
-        <v>827</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>89</v>
@@ -21648,10 +21657,10 @@
         <v>101</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>81</v>

--- a/refs/heads/master/StructureDefinition-PatientLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T13:53:42+00:00</t>
+    <t>2024-06-28T19:11:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
